--- a/public/excels/template/refundCustomer.xlsx
+++ b/public/excels/template/refundCustomer.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tho\Desktop\tomoni\public\excels\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9169884-D442-4E16-AE53-5890687686E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDCD90-EBC5-4B68-A879-F1BC1CFFA998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hàng Thực Tế" sheetId="3" r:id="rId1"/>
+    <sheet name="Trả lại tiền" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -522,6 +522,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,9 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,44 +615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q677"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,81 +927,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="45">
         <v>44168</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1020,30 +1020,30 @@
       <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="55">
         <f>11000000/350</f>
         <v>31428.571428571428</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="58">
         <f>IF(J24&gt;(K24*350),J24,K24)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="61">
         <f>M5*N5</f>
         <v>0</v>
       </c>
@@ -1053,171 +1053,171 @@
       <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="53"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="53"/>
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="61"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6">
@@ -1247,201 +1247,201 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
     </row>
     <row r="23" spans="1:17" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
       <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1472,13 +1472,13 @@
       <c r="I25" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="29" t="s">
         <v>40</v>
       </c>
       <c r="M25" s="28"/>
@@ -1496,9 +1496,9 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
@@ -1515,9 +1515,9 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
@@ -1534,9 +1534,9 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
@@ -1552,9 +1552,9 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
@@ -1570,9 +1570,9 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
@@ -1588,9 +1588,9 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
@@ -1606,9 +1606,9 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
@@ -1624,9 +1624,9 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
@@ -1642,9 +1642,9 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
@@ -1660,9 +1660,9 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
@@ -1678,9 +1678,9 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
@@ -1696,9 +1696,9 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
@@ -1714,9 +1714,9 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
@@ -1732,9 +1732,9 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
@@ -1750,9 +1750,9 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
@@ -1768,9 +1768,9 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
@@ -1786,9 +1786,9 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="28"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
@@ -1804,9 +1804,9 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
@@ -1822,9 +1822,9 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
@@ -1840,9 +1840,9 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
@@ -1858,9 +1858,9 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
@@ -1876,9 +1876,9 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
@@ -1894,9 +1894,9 @@
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
@@ -1908,9 +1908,9 @@
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
@@ -1922,9 +1922,9 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
@@ -1936,9 +1936,9 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
@@ -1950,9 +1950,9 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
@@ -1964,9 +1964,9 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
@@ -1978,9 +1978,9 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
@@ -1992,9 +1992,9 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
@@ -2006,9 +2006,9 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
@@ -2020,9 +2020,9 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
@@ -2034,9 +2034,9 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
@@ -2048,9 +2048,9 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
@@ -2062,9 +2062,9 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
@@ -2076,9 +2076,9 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
@@ -2090,9 +2090,9 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2104,9 +2104,9 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
@@ -2118,9 +2118,9 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
@@ -2132,9 +2132,9 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
@@ -2146,9 +2146,9 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -2160,9 +2160,9 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
@@ -2174,9 +2174,9 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
@@ -2188,9 +2188,9 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
@@ -2202,9 +2202,9 @@
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
       <c r="I70" s="26"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
@@ -2216,9 +2216,9 @@
       <c r="G71" s="26"/>
       <c r="H71" s="26"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -2230,9 +2230,9 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
@@ -2244,9 +2244,9 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
@@ -2258,9 +2258,9 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
@@ -2272,9 +2272,9 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
@@ -2286,9 +2286,9 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
@@ -2300,9 +2300,9 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
@@ -2314,9 +2314,9 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
@@ -2328,9 +2328,9 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
@@ -2342,9 +2342,9 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
@@ -2356,9 +2356,9 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
@@ -2370,9 +2370,9 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
@@ -2384,9 +2384,9 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
@@ -2398,9 +2398,9 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
@@ -2412,9 +2412,9 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
@@ -2426,9 +2426,9 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -2440,9 +2440,9 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
@@ -2454,9 +2454,9 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
@@ -2468,9 +2468,9 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
@@ -2482,9 +2482,9 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
@@ -2496,9 +2496,9 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
@@ -2510,9 +2510,9 @@
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
@@ -2524,9 +2524,9 @@
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
@@ -2538,9 +2538,9 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
@@ -2552,9 +2552,9 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
@@ -2566,9 +2566,9 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
@@ -2580,9 +2580,9 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
@@ -2594,9 +2594,9 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
@@ -2608,9 +2608,9 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
@@ -2622,9 +2622,9 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
@@ -2636,9 +2636,9 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
@@ -2650,9 +2650,9 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
@@ -2664,9 +2664,9 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
@@ -2678,9 +2678,9 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
@@ -2692,9 +2692,9 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
@@ -2706,9 +2706,9 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60"/>
-      <c r="L106" s="60"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
@@ -2720,9 +2720,9 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
@@ -2734,9 +2734,9 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="60"/>
-      <c r="K108" s="60"/>
-      <c r="L108" s="60"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
@@ -2748,9 +2748,9 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
@@ -2762,9 +2762,9 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="60"/>
-      <c r="L110" s="60"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
@@ -2776,9 +2776,9 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="60"/>
-      <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
@@ -2790,9 +2790,9 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
@@ -2804,9 +2804,9 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
@@ -2818,9 +2818,9 @@
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
@@ -2832,9 +2832,9 @@
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
-      <c r="J115" s="60"/>
-      <c r="K115" s="60"/>
-      <c r="L115" s="60"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
@@ -2846,9 +2846,9 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="60"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
@@ -2860,9 +2860,9 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
@@ -2874,9 +2874,9 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="60"/>
-      <c r="K118" s="60"/>
-      <c r="L118" s="60"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
@@ -2888,9 +2888,9 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="60"/>
-      <c r="L119" s="60"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
@@ -2902,9 +2902,9 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="60"/>
-      <c r="L120" s="60"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
@@ -2916,9 +2916,9 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
@@ -2930,9 +2930,9 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="60"/>
-      <c r="K122" s="60"/>
-      <c r="L122" s="60"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
@@ -2944,9 +2944,9 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
-      <c r="L123" s="60"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
@@ -2958,9 +2958,9 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
@@ -2972,9 +2972,9 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
-      <c r="L125" s="60"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
@@ -2986,9 +2986,9 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="60"/>
-      <c r="K126" s="60"/>
-      <c r="L126" s="60"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
@@ -3000,9 +3000,9 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="60"/>
-      <c r="K127" s="60"/>
-      <c r="L127" s="60"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
@@ -3014,9 +3014,9 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="60"/>
-      <c r="K128" s="60"/>
-      <c r="L128" s="60"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
@@ -3028,9 +3028,9 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="60"/>
-      <c r="K129" s="60"/>
-      <c r="L129" s="60"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
@@ -3042,9 +3042,9 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="60"/>
-      <c r="K130" s="60"/>
-      <c r="L130" s="60"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
@@ -3056,9 +3056,9 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="60"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
@@ -3070,9 +3070,9 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="60"/>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
@@ -3084,9 +3084,9 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="60"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
@@ -3098,9 +3098,9 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="60"/>
-      <c r="K134" s="60"/>
-      <c r="L134" s="60"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
@@ -3112,9 +3112,9 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="60"/>
-      <c r="K135" s="60"/>
-      <c r="L135" s="60"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
@@ -3126,9 +3126,9 @@
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
       <c r="I136" s="26"/>
-      <c r="J136" s="60"/>
-      <c r="K136" s="60"/>
-      <c r="L136" s="60"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
@@ -3140,9 +3140,9 @@
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
-      <c r="J137" s="60"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="60"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
@@ -3154,9 +3154,9 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="60"/>
-      <c r="K138" s="60"/>
-      <c r="L138" s="60"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
@@ -3168,9 +3168,9 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="60"/>
-      <c r="K139" s="60"/>
-      <c r="L139" s="60"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
@@ -3182,9 +3182,9 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="60"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="60"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
@@ -3196,9 +3196,9 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
@@ -3210,9 +3210,9 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="60"/>
-      <c r="K142" s="60"/>
-      <c r="L142" s="60"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
@@ -3224,9 +3224,9 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="60"/>
-      <c r="K143" s="60"/>
-      <c r="L143" s="60"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
@@ -3238,9 +3238,9 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
@@ -3252,9 +3252,9 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="60"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
@@ -3266,9 +3266,9 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="60"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
@@ -3280,9 +3280,9 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="60"/>
-      <c r="K147" s="60"/>
-      <c r="L147" s="60"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
@@ -3294,9 +3294,9 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="60"/>
-      <c r="K148" s="60"/>
-      <c r="L148" s="60"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
@@ -3308,9 +3308,9 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
@@ -3322,9 +3322,9 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="60"/>
-      <c r="K150" s="60"/>
-      <c r="L150" s="60"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
@@ -3336,9 +3336,9 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="60"/>
-      <c r="K151" s="60"/>
-      <c r="L151" s="60"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
@@ -3350,9 +3350,9 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
@@ -3364,9 +3364,9 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
@@ -3378,9 +3378,9 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="60"/>
-      <c r="L154" s="60"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
@@ -3392,9 +3392,9 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="60"/>
-      <c r="L155" s="60"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
@@ -3406,9 +3406,9 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="60"/>
-      <c r="K156" s="60"/>
-      <c r="L156" s="60"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
@@ -3420,9 +3420,9 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
@@ -3434,9 +3434,9 @@
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
       <c r="I158" s="26"/>
-      <c r="J158" s="60"/>
-      <c r="K158" s="60"/>
-      <c r="L158" s="60"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
@@ -3448,9 +3448,9 @@
       <c r="G159" s="26"/>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
-      <c r="J159" s="60"/>
-      <c r="K159" s="60"/>
-      <c r="L159" s="60"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
@@ -3462,9 +3462,9 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="60"/>
-      <c r="K160" s="60"/>
-      <c r="L160" s="60"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
@@ -3476,9 +3476,9 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
@@ -3490,9 +3490,9 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="60"/>
-      <c r="K162" s="60"/>
-      <c r="L162" s="60"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
@@ -3504,9 +3504,9 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="60"/>
-      <c r="K163" s="60"/>
-      <c r="L163" s="60"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
@@ -3518,9 +3518,9 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="60"/>
-      <c r="K164" s="60"/>
-      <c r="L164" s="60"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
@@ -3532,9 +3532,9 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="60"/>
-      <c r="K165" s="60"/>
-      <c r="L165" s="60"/>
+      <c r="J165" s="29"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
@@ -3546,9 +3546,9 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="60"/>
-      <c r="K166" s="60"/>
-      <c r="L166" s="60"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
@@ -3560,9 +3560,9 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="60"/>
-      <c r="K167" s="60"/>
-      <c r="L167" s="60"/>
+      <c r="J167" s="29"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
@@ -3574,9 +3574,9 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="60"/>
-      <c r="K168" s="60"/>
-      <c r="L168" s="60"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="29"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
@@ -3588,9 +3588,9 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
+      <c r="J169" s="29"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="29"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
@@ -3602,9 +3602,9 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="60"/>
-      <c r="K170" s="60"/>
-      <c r="L170" s="60"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="29"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
@@ -3616,9 +3616,9 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="60"/>
-      <c r="K171" s="60"/>
-      <c r="L171" s="60"/>
+      <c r="J171" s="29"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
@@ -3630,9 +3630,9 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="60"/>
-      <c r="K172" s="60"/>
-      <c r="L172" s="60"/>
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="29"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
@@ -3644,9 +3644,9 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="60"/>
-      <c r="K173" s="60"/>
-      <c r="L173" s="60"/>
+      <c r="J173" s="29"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="29"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
@@ -3658,9 +3658,9 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="60"/>
-      <c r="K174" s="60"/>
-      <c r="L174" s="60"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="15"/>
@@ -3672,9 +3672,9 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="60"/>
-      <c r="K175" s="60"/>
-      <c r="L175" s="60"/>
+      <c r="J175" s="29"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="29"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
@@ -3686,9 +3686,9 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="60"/>
-      <c r="K176" s="60"/>
-      <c r="L176" s="60"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="29"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
@@ -3700,9 +3700,9 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="60"/>
-      <c r="K177" s="60"/>
-      <c r="L177" s="60"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="29"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
@@ -3714,9 +3714,9 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="60"/>
-      <c r="K178" s="60"/>
-      <c r="L178" s="60"/>
+      <c r="J178" s="29"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="29"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
@@ -3728,9 +3728,9 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="60"/>
-      <c r="K179" s="60"/>
-      <c r="L179" s="60"/>
+      <c r="J179" s="29"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="29"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="15"/>
@@ -3742,9 +3742,9 @@
       <c r="G180" s="26"/>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
-      <c r="J180" s="60"/>
-      <c r="K180" s="60"/>
-      <c r="L180" s="60"/>
+      <c r="J180" s="29"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="29"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="15"/>
@@ -3756,9 +3756,9 @@
       <c r="G181" s="26"/>
       <c r="H181" s="26"/>
       <c r="I181" s="26"/>
-      <c r="J181" s="60"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
+      <c r="J181" s="29"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="29"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
@@ -3770,9 +3770,9 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="60"/>
-      <c r="K182" s="60"/>
-      <c r="L182" s="60"/>
+      <c r="J182" s="29"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="29"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
@@ -3784,9 +3784,9 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="60"/>
-      <c r="K183" s="60"/>
-      <c r="L183" s="60"/>
+      <c r="J183" s="29"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="29"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
@@ -3798,9 +3798,9 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="60"/>
-      <c r="K184" s="60"/>
-      <c r="L184" s="60"/>
+      <c r="J184" s="29"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="29"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
@@ -3812,9 +3812,9 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="60"/>
-      <c r="K185" s="60"/>
-      <c r="L185" s="60"/>
+      <c r="J185" s="29"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="29"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
@@ -3826,9 +3826,9 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="60"/>
-      <c r="K186" s="60"/>
-      <c r="L186" s="60"/>
+      <c r="J186" s="29"/>
+      <c r="K186" s="29"/>
+      <c r="L186" s="29"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
@@ -3840,9 +3840,9 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="60"/>
-      <c r="K187" s="60"/>
-      <c r="L187" s="60"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="29"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
@@ -3854,9 +3854,9 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="60"/>
-      <c r="K188" s="60"/>
-      <c r="L188" s="60"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="29"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
@@ -3868,9 +3868,9 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="60"/>
-      <c r="K189" s="60"/>
-      <c r="L189" s="60"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="29"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
@@ -3882,9 +3882,9 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="60"/>
-      <c r="K190" s="60"/>
-      <c r="L190" s="60"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="29"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
@@ -3896,9 +3896,9 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="60"/>
-      <c r="K191" s="60"/>
-      <c r="L191" s="60"/>
+      <c r="J191" s="29"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="29"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="15"/>
@@ -3910,9 +3910,9 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="60"/>
-      <c r="K192" s="60"/>
-      <c r="L192" s="60"/>
+      <c r="J192" s="29"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="29"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
@@ -3924,9 +3924,9 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="60"/>
-      <c r="K193" s="60"/>
-      <c r="L193" s="60"/>
+      <c r="J193" s="29"/>
+      <c r="K193" s="29"/>
+      <c r="L193" s="29"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="15"/>
@@ -3938,9 +3938,9 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="60"/>
-      <c r="K194" s="60"/>
-      <c r="L194" s="60"/>
+      <c r="J194" s="29"/>
+      <c r="K194" s="29"/>
+      <c r="L194" s="29"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="15"/>
@@ -3952,9 +3952,9 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="60"/>
-      <c r="K195" s="60"/>
-      <c r="L195" s="60"/>
+      <c r="J195" s="29"/>
+      <c r="K195" s="29"/>
+      <c r="L195" s="29"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
@@ -3966,9 +3966,9 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="60"/>
-      <c r="K196" s="60"/>
-      <c r="L196" s="60"/>
+      <c r="J196" s="29"/>
+      <c r="K196" s="29"/>
+      <c r="L196" s="29"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
@@ -3980,9 +3980,9 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="60"/>
-      <c r="K197" s="60"/>
-      <c r="L197" s="60"/>
+      <c r="J197" s="29"/>
+      <c r="K197" s="29"/>
+      <c r="L197" s="29"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
@@ -3994,9 +3994,9 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="60"/>
-      <c r="K198" s="60"/>
-      <c r="L198" s="60"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="29"/>
+      <c r="L198" s="29"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="15"/>
@@ -4008,9 +4008,9 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="60"/>
-      <c r="K199" s="60"/>
-      <c r="L199" s="60"/>
+      <c r="J199" s="29"/>
+      <c r="K199" s="29"/>
+      <c r="L199" s="29"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
@@ -4022,9 +4022,9 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="60"/>
-      <c r="K200" s="60"/>
-      <c r="L200" s="60"/>
+      <c r="J200" s="29"/>
+      <c r="K200" s="29"/>
+      <c r="L200" s="29"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
@@ -4036,9 +4036,9 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="60"/>
-      <c r="K201" s="60"/>
-      <c r="L201" s="60"/>
+      <c r="J201" s="29"/>
+      <c r="K201" s="29"/>
+      <c r="L201" s="29"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="15"/>
@@ -4050,9 +4050,9 @@
       <c r="G202" s="26"/>
       <c r="H202" s="26"/>
       <c r="I202" s="26"/>
-      <c r="J202" s="60"/>
-      <c r="K202" s="60"/>
-      <c r="L202" s="60"/>
+      <c r="J202" s="29"/>
+      <c r="K202" s="29"/>
+      <c r="L202" s="29"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
@@ -4064,9 +4064,9 @@
       <c r="G203" s="26"/>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
-      <c r="J203" s="60"/>
-      <c r="K203" s="60"/>
-      <c r="L203" s="60"/>
+      <c r="J203" s="29"/>
+      <c r="K203" s="29"/>
+      <c r="L203" s="29"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
@@ -4078,9 +4078,9 @@
       <c r="G204" s="27"/>
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
-      <c r="J204" s="60"/>
-      <c r="K204" s="60"/>
-      <c r="L204" s="60"/>
+      <c r="J204" s="29"/>
+      <c r="K204" s="29"/>
+      <c r="L204" s="29"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="15"/>
@@ -4092,9 +4092,9 @@
       <c r="G205" s="27"/>
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
-      <c r="J205" s="60"/>
-      <c r="K205" s="60"/>
-      <c r="L205" s="60"/>
+      <c r="J205" s="29"/>
+      <c r="K205" s="29"/>
+      <c r="L205" s="29"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="15"/>
@@ -4106,9 +4106,9 @@
       <c r="G206" s="27"/>
       <c r="H206" s="27"/>
       <c r="I206" s="27"/>
-      <c r="J206" s="60"/>
-      <c r="K206" s="60"/>
-      <c r="L206" s="60"/>
+      <c r="J206" s="29"/>
+      <c r="K206" s="29"/>
+      <c r="L206" s="29"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="15"/>
@@ -4120,9 +4120,9 @@
       <c r="G207" s="27"/>
       <c r="H207" s="27"/>
       <c r="I207" s="27"/>
-      <c r="J207" s="60"/>
-      <c r="K207" s="60"/>
-      <c r="L207" s="60"/>
+      <c r="J207" s="29"/>
+      <c r="K207" s="29"/>
+      <c r="L207" s="29"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="15"/>
@@ -4134,9 +4134,9 @@
       <c r="G208" s="27"/>
       <c r="H208" s="27"/>
       <c r="I208" s="27"/>
-      <c r="J208" s="60"/>
-      <c r="K208" s="60"/>
-      <c r="L208" s="60"/>
+      <c r="J208" s="29"/>
+      <c r="K208" s="29"/>
+      <c r="L208" s="29"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="15"/>
@@ -4148,9 +4148,9 @@
       <c r="G209" s="27"/>
       <c r="H209" s="27"/>
       <c r="I209" s="27"/>
-      <c r="J209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
+      <c r="J209" s="29"/>
+      <c r="K209" s="29"/>
+      <c r="L209" s="29"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="15"/>
@@ -4162,9 +4162,9 @@
       <c r="G210" s="27"/>
       <c r="H210" s="27"/>
       <c r="I210" s="27"/>
-      <c r="J210" s="60"/>
-      <c r="K210" s="60"/>
-      <c r="L210" s="60"/>
+      <c r="J210" s="29"/>
+      <c r="K210" s="29"/>
+      <c r="L210" s="29"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="15"/>
@@ -4176,9 +4176,9 @@
       <c r="G211" s="27"/>
       <c r="H211" s="27"/>
       <c r="I211" s="27"/>
-      <c r="J211" s="60"/>
-      <c r="K211" s="60"/>
-      <c r="L211" s="60"/>
+      <c r="J211" s="29"/>
+      <c r="K211" s="29"/>
+      <c r="L211" s="29"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="15"/>
@@ -4190,9 +4190,9 @@
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="27"/>
-      <c r="J212" s="60"/>
-      <c r="K212" s="60"/>
-      <c r="L212" s="60"/>
+      <c r="J212" s="29"/>
+      <c r="K212" s="29"/>
+      <c r="L212" s="29"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="15"/>
@@ -4204,9 +4204,9 @@
       <c r="G213" s="27"/>
       <c r="H213" s="27"/>
       <c r="I213" s="27"/>
-      <c r="J213" s="60"/>
-      <c r="K213" s="60"/>
-      <c r="L213" s="60"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="15"/>
@@ -4218,9 +4218,9 @@
       <c r="G214" s="27"/>
       <c r="H214" s="27"/>
       <c r="I214" s="27"/>
-      <c r="J214" s="60"/>
-      <c r="K214" s="60"/>
-      <c r="L214" s="60"/>
+      <c r="J214" s="29"/>
+      <c r="K214" s="29"/>
+      <c r="L214" s="29"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="15"/>
@@ -4232,9 +4232,9 @@
       <c r="G215" s="27"/>
       <c r="H215" s="27"/>
       <c r="I215" s="27"/>
-      <c r="J215" s="60"/>
-      <c r="K215" s="60"/>
-      <c r="L215" s="60"/>
+      <c r="J215" s="29"/>
+      <c r="K215" s="29"/>
+      <c r="L215" s="29"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
@@ -4246,9 +4246,9 @@
       <c r="G216" s="27"/>
       <c r="H216" s="27"/>
       <c r="I216" s="27"/>
-      <c r="J216" s="60"/>
-      <c r="K216" s="60"/>
-      <c r="L216" s="60"/>
+      <c r="J216" s="29"/>
+      <c r="K216" s="29"/>
+      <c r="L216" s="29"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="15"/>
@@ -4260,9 +4260,9 @@
       <c r="G217" s="27"/>
       <c r="H217" s="27"/>
       <c r="I217" s="27"/>
-      <c r="J217" s="60"/>
-      <c r="K217" s="60"/>
-      <c r="L217" s="60"/>
+      <c r="J217" s="29"/>
+      <c r="K217" s="29"/>
+      <c r="L217" s="29"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="15"/>
@@ -4274,9 +4274,9 @@
       <c r="G218" s="27"/>
       <c r="H218" s="27"/>
       <c r="I218" s="27"/>
-      <c r="J218" s="60"/>
-      <c r="K218" s="60"/>
-      <c r="L218" s="60"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="29"/>
+      <c r="L218" s="29"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="15"/>
@@ -4288,9 +4288,9 @@
       <c r="G219" s="27"/>
       <c r="H219" s="27"/>
       <c r="I219" s="27"/>
-      <c r="J219" s="60"/>
-      <c r="K219" s="60"/>
-      <c r="L219" s="60"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="29"/>
+      <c r="L219" s="29"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="15"/>
@@ -4302,9 +4302,9 @@
       <c r="G220" s="27"/>
       <c r="H220" s="27"/>
       <c r="I220" s="27"/>
-      <c r="J220" s="60"/>
-      <c r="K220" s="60"/>
-      <c r="L220" s="60"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="29"/>
+      <c r="L220" s="29"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="15"/>
@@ -4316,9 +4316,9 @@
       <c r="G221" s="27"/>
       <c r="H221" s="27"/>
       <c r="I221" s="27"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="60"/>
-      <c r="L221" s="60"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="29"/>
+      <c r="L221" s="29"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="15"/>
@@ -4330,9 +4330,9 @@
       <c r="G222" s="27"/>
       <c r="H222" s="27"/>
       <c r="I222" s="27"/>
-      <c r="J222" s="60"/>
-      <c r="K222" s="60"/>
-      <c r="L222" s="60"/>
+      <c r="J222" s="29"/>
+      <c r="K222" s="29"/>
+      <c r="L222" s="29"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="15"/>
@@ -4344,9 +4344,9 @@
       <c r="G223" s="27"/>
       <c r="H223" s="27"/>
       <c r="I223" s="27"/>
-      <c r="J223" s="60"/>
-      <c r="K223" s="60"/>
-      <c r="L223" s="60"/>
+      <c r="J223" s="29"/>
+      <c r="K223" s="29"/>
+      <c r="L223" s="29"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="15"/>
@@ -4358,9 +4358,9 @@
       <c r="G224" s="26"/>
       <c r="H224" s="26"/>
       <c r="I224" s="26"/>
-      <c r="J224" s="60"/>
-      <c r="K224" s="60"/>
-      <c r="L224" s="60"/>
+      <c r="J224" s="29"/>
+      <c r="K224" s="29"/>
+      <c r="L224" s="29"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="15"/>
@@ -4372,9 +4372,9 @@
       <c r="G225" s="26"/>
       <c r="H225" s="26"/>
       <c r="I225" s="26"/>
-      <c r="J225" s="60"/>
-      <c r="K225" s="60"/>
-      <c r="L225" s="60"/>
+      <c r="J225" s="29"/>
+      <c r="K225" s="29"/>
+      <c r="L225" s="29"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="15"/>
@@ -4386,9 +4386,9 @@
       <c r="G226" s="27"/>
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
-      <c r="J226" s="60"/>
-      <c r="K226" s="60"/>
-      <c r="L226" s="60"/>
+      <c r="J226" s="29"/>
+      <c r="K226" s="29"/>
+      <c r="L226" s="29"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="15"/>
@@ -4400,9 +4400,9 @@
       <c r="G227" s="27"/>
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
-      <c r="J227" s="60"/>
-      <c r="K227" s="60"/>
-      <c r="L227" s="60"/>
+      <c r="J227" s="29"/>
+      <c r="K227" s="29"/>
+      <c r="L227" s="29"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="15"/>
@@ -4414,9 +4414,9 @@
       <c r="G228" s="27"/>
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
-      <c r="J228" s="60"/>
-      <c r="K228" s="60"/>
-      <c r="L228" s="60"/>
+      <c r="J228" s="29"/>
+      <c r="K228" s="29"/>
+      <c r="L228" s="29"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="15"/>
@@ -4428,9 +4428,9 @@
       <c r="G229" s="27"/>
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
-      <c r="J229" s="60"/>
-      <c r="K229" s="60"/>
-      <c r="L229" s="60"/>
+      <c r="J229" s="29"/>
+      <c r="K229" s="29"/>
+      <c r="L229" s="29"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="15"/>
@@ -4442,9 +4442,9 @@
       <c r="G230" s="27"/>
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
-      <c r="J230" s="60"/>
-      <c r="K230" s="60"/>
-      <c r="L230" s="60"/>
+      <c r="J230" s="29"/>
+      <c r="K230" s="29"/>
+      <c r="L230" s="29"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="15"/>
@@ -4456,9 +4456,9 @@
       <c r="G231" s="27"/>
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
-      <c r="J231" s="60"/>
-      <c r="K231" s="60"/>
-      <c r="L231" s="60"/>
+      <c r="J231" s="29"/>
+      <c r="K231" s="29"/>
+      <c r="L231" s="29"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="15"/>
@@ -4470,9 +4470,9 @@
       <c r="G232" s="27"/>
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
-      <c r="J232" s="60"/>
-      <c r="K232" s="60"/>
-      <c r="L232" s="60"/>
+      <c r="J232" s="29"/>
+      <c r="K232" s="29"/>
+      <c r="L232" s="29"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="15"/>
@@ -4484,9 +4484,9 @@
       <c r="G233" s="27"/>
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
-      <c r="J233" s="60"/>
-      <c r="K233" s="60"/>
-      <c r="L233" s="60"/>
+      <c r="J233" s="29"/>
+      <c r="K233" s="29"/>
+      <c r="L233" s="29"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="15"/>
@@ -4498,9 +4498,9 @@
       <c r="G234" s="27"/>
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
-      <c r="J234" s="60"/>
-      <c r="K234" s="60"/>
-      <c r="L234" s="60"/>
+      <c r="J234" s="29"/>
+      <c r="K234" s="29"/>
+      <c r="L234" s="29"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="15"/>
@@ -4512,9 +4512,9 @@
       <c r="G235" s="27"/>
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
-      <c r="J235" s="60"/>
-      <c r="K235" s="60"/>
-      <c r="L235" s="60"/>
+      <c r="J235" s="29"/>
+      <c r="K235" s="29"/>
+      <c r="L235" s="29"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="15"/>
@@ -4526,9 +4526,9 @@
       <c r="G236" s="27"/>
       <c r="H236" s="27"/>
       <c r="I236" s="27"/>
-      <c r="J236" s="60"/>
-      <c r="K236" s="60"/>
-      <c r="L236" s="60"/>
+      <c r="J236" s="29"/>
+      <c r="K236" s="29"/>
+      <c r="L236" s="29"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="15"/>
@@ -4540,9 +4540,9 @@
       <c r="G237" s="27"/>
       <c r="H237" s="27"/>
       <c r="I237" s="27"/>
-      <c r="J237" s="60"/>
-      <c r="K237" s="60"/>
-      <c r="L237" s="60"/>
+      <c r="J237" s="29"/>
+      <c r="K237" s="29"/>
+      <c r="L237" s="29"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="15"/>
@@ -4554,9 +4554,9 @@
       <c r="G238" s="27"/>
       <c r="H238" s="27"/>
       <c r="I238" s="27"/>
-      <c r="J238" s="60"/>
-      <c r="K238" s="60"/>
-      <c r="L238" s="60"/>
+      <c r="J238" s="29"/>
+      <c r="K238" s="29"/>
+      <c r="L238" s="29"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="15"/>
@@ -4568,9 +4568,9 @@
       <c r="G239" s="27"/>
       <c r="H239" s="27"/>
       <c r="I239" s="27"/>
-      <c r="J239" s="60"/>
-      <c r="K239" s="60"/>
-      <c r="L239" s="60"/>
+      <c r="J239" s="29"/>
+      <c r="K239" s="29"/>
+      <c r="L239" s="29"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="15"/>
@@ -4582,9 +4582,9 @@
       <c r="G240" s="27"/>
       <c r="H240" s="27"/>
       <c r="I240" s="27"/>
-      <c r="J240" s="60"/>
-      <c r="K240" s="60"/>
-      <c r="L240" s="60"/>
+      <c r="J240" s="29"/>
+      <c r="K240" s="29"/>
+      <c r="L240" s="29"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="15"/>
@@ -4596,9 +4596,9 @@
       <c r="G241" s="27"/>
       <c r="H241" s="27"/>
       <c r="I241" s="27"/>
-      <c r="J241" s="60"/>
-      <c r="K241" s="60"/>
-      <c r="L241" s="60"/>
+      <c r="J241" s="29"/>
+      <c r="K241" s="29"/>
+      <c r="L241" s="29"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="15"/>
@@ -4610,9 +4610,9 @@
       <c r="G242" s="27"/>
       <c r="H242" s="27"/>
       <c r="I242" s="27"/>
-      <c r="J242" s="60"/>
-      <c r="K242" s="60"/>
-      <c r="L242" s="60"/>
+      <c r="J242" s="29"/>
+      <c r="K242" s="29"/>
+      <c r="L242" s="29"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="15"/>
@@ -4624,9 +4624,9 @@
       <c r="G243" s="27"/>
       <c r="H243" s="27"/>
       <c r="I243" s="27"/>
-      <c r="J243" s="60"/>
-      <c r="K243" s="60"/>
-      <c r="L243" s="60"/>
+      <c r="J243" s="29"/>
+      <c r="K243" s="29"/>
+      <c r="L243" s="29"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="15"/>
@@ -4638,9 +4638,9 @@
       <c r="G244" s="27"/>
       <c r="H244" s="27"/>
       <c r="I244" s="27"/>
-      <c r="J244" s="60"/>
-      <c r="K244" s="60"/>
-      <c r="L244" s="60"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="29"/>
+      <c r="L244" s="29"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="15"/>
@@ -4652,9 +4652,9 @@
       <c r="G245" s="27"/>
       <c r="H245" s="27"/>
       <c r="I245" s="27"/>
-      <c r="J245" s="60"/>
-      <c r="K245" s="60"/>
-      <c r="L245" s="60"/>
+      <c r="J245" s="29"/>
+      <c r="K245" s="29"/>
+      <c r="L245" s="29"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="15"/>
@@ -4666,9 +4666,9 @@
       <c r="G246" s="26"/>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
-      <c r="J246" s="60"/>
-      <c r="K246" s="60"/>
-      <c r="L246" s="60"/>
+      <c r="J246" s="29"/>
+      <c r="K246" s="29"/>
+      <c r="L246" s="29"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="15"/>
@@ -4680,9 +4680,9 @@
       <c r="G247" s="26"/>
       <c r="H247" s="26"/>
       <c r="I247" s="26"/>
-      <c r="J247" s="60"/>
-      <c r="K247" s="60"/>
-      <c r="L247" s="60"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="29"/>
+      <c r="L247" s="29"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="15"/>
@@ -4694,9 +4694,9 @@
       <c r="G248" s="27"/>
       <c r="H248" s="27"/>
       <c r="I248" s="27"/>
-      <c r="J248" s="60"/>
-      <c r="K248" s="60"/>
-      <c r="L248" s="60"/>
+      <c r="J248" s="29"/>
+      <c r="K248" s="29"/>
+      <c r="L248" s="29"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="15"/>
@@ -4708,9 +4708,9 @@
       <c r="G249" s="27"/>
       <c r="H249" s="27"/>
       <c r="I249" s="27"/>
-      <c r="J249" s="60"/>
-      <c r="K249" s="60"/>
-      <c r="L249" s="60"/>
+      <c r="J249" s="29"/>
+      <c r="K249" s="29"/>
+      <c r="L249" s="29"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="15"/>
@@ -4722,9 +4722,9 @@
       <c r="G250" s="27"/>
       <c r="H250" s="27"/>
       <c r="I250" s="27"/>
-      <c r="J250" s="60"/>
-      <c r="K250" s="60"/>
-      <c r="L250" s="60"/>
+      <c r="J250" s="29"/>
+      <c r="K250" s="29"/>
+      <c r="L250" s="29"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="15"/>
@@ -4736,9 +4736,9 @@
       <c r="G251" s="27"/>
       <c r="H251" s="27"/>
       <c r="I251" s="27"/>
-      <c r="J251" s="60"/>
-      <c r="K251" s="60"/>
-      <c r="L251" s="60"/>
+      <c r="J251" s="29"/>
+      <c r="K251" s="29"/>
+      <c r="L251" s="29"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="15"/>
@@ -4750,9 +4750,9 @@
       <c r="G252" s="27"/>
       <c r="H252" s="27"/>
       <c r="I252" s="27"/>
-      <c r="J252" s="60"/>
-      <c r="K252" s="60"/>
-      <c r="L252" s="60"/>
+      <c r="J252" s="29"/>
+      <c r="K252" s="29"/>
+      <c r="L252" s="29"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="15"/>
@@ -4764,9 +4764,9 @@
       <c r="G253" s="27"/>
       <c r="H253" s="27"/>
       <c r="I253" s="27"/>
-      <c r="J253" s="60"/>
-      <c r="K253" s="60"/>
-      <c r="L253" s="60"/>
+      <c r="J253" s="29"/>
+      <c r="K253" s="29"/>
+      <c r="L253" s="29"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="15"/>
@@ -4778,9 +4778,9 @@
       <c r="G254" s="27"/>
       <c r="H254" s="27"/>
       <c r="I254" s="27"/>
-      <c r="J254" s="60"/>
-      <c r="K254" s="60"/>
-      <c r="L254" s="60"/>
+      <c r="J254" s="29"/>
+      <c r="K254" s="29"/>
+      <c r="L254" s="29"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="15"/>
@@ -4792,9 +4792,9 @@
       <c r="G255" s="27"/>
       <c r="H255" s="27"/>
       <c r="I255" s="27"/>
-      <c r="J255" s="60"/>
-      <c r="K255" s="60"/>
-      <c r="L255" s="60"/>
+      <c r="J255" s="29"/>
+      <c r="K255" s="29"/>
+      <c r="L255" s="29"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="15"/>
@@ -4806,9 +4806,9 @@
       <c r="G256" s="27"/>
       <c r="H256" s="27"/>
       <c r="I256" s="27"/>
-      <c r="J256" s="60"/>
-      <c r="K256" s="60"/>
-      <c r="L256" s="60"/>
+      <c r="J256" s="29"/>
+      <c r="K256" s="29"/>
+      <c r="L256" s="29"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="15"/>
@@ -4820,9 +4820,9 @@
       <c r="G257" s="27"/>
       <c r="H257" s="27"/>
       <c r="I257" s="27"/>
-      <c r="J257" s="60"/>
-      <c r="K257" s="60"/>
-      <c r="L257" s="60"/>
+      <c r="J257" s="29"/>
+      <c r="K257" s="29"/>
+      <c r="L257" s="29"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="15"/>
@@ -4834,9 +4834,9 @@
       <c r="G258" s="27"/>
       <c r="H258" s="27"/>
       <c r="I258" s="27"/>
-      <c r="J258" s="60"/>
-      <c r="K258" s="60"/>
-      <c r="L258" s="60"/>
+      <c r="J258" s="29"/>
+      <c r="K258" s="29"/>
+      <c r="L258" s="29"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="15"/>
@@ -4848,9 +4848,9 @@
       <c r="G259" s="27"/>
       <c r="H259" s="27"/>
       <c r="I259" s="27"/>
-      <c r="J259" s="60"/>
-      <c r="K259" s="60"/>
-      <c r="L259" s="60"/>
+      <c r="J259" s="29"/>
+      <c r="K259" s="29"/>
+      <c r="L259" s="29"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="15"/>
@@ -4862,9 +4862,9 @@
       <c r="G260" s="27"/>
       <c r="H260" s="27"/>
       <c r="I260" s="27"/>
-      <c r="J260" s="60"/>
-      <c r="K260" s="60"/>
-      <c r="L260" s="60"/>
+      <c r="J260" s="29"/>
+      <c r="K260" s="29"/>
+      <c r="L260" s="29"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="15"/>
@@ -4876,9 +4876,9 @@
       <c r="G261" s="27"/>
       <c r="H261" s="27"/>
       <c r="I261" s="27"/>
-      <c r="J261" s="60"/>
-      <c r="K261" s="60"/>
-      <c r="L261" s="60"/>
+      <c r="J261" s="29"/>
+      <c r="K261" s="29"/>
+      <c r="L261" s="29"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="15"/>
@@ -4890,9 +4890,9 @@
       <c r="G262" s="27"/>
       <c r="H262" s="27"/>
       <c r="I262" s="27"/>
-      <c r="J262" s="60"/>
-      <c r="K262" s="60"/>
-      <c r="L262" s="60"/>
+      <c r="J262" s="29"/>
+      <c r="K262" s="29"/>
+      <c r="L262" s="29"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="15"/>
@@ -4904,9 +4904,9 @@
       <c r="G263" s="27"/>
       <c r="H263" s="27"/>
       <c r="I263" s="27"/>
-      <c r="J263" s="60"/>
-      <c r="K263" s="60"/>
-      <c r="L263" s="60"/>
+      <c r="J263" s="29"/>
+      <c r="K263" s="29"/>
+      <c r="L263" s="29"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="15"/>
@@ -4918,9 +4918,9 @@
       <c r="G264" s="27"/>
       <c r="H264" s="27"/>
       <c r="I264" s="27"/>
-      <c r="J264" s="60"/>
-      <c r="K264" s="60"/>
-      <c r="L264" s="60"/>
+      <c r="J264" s="29"/>
+      <c r="K264" s="29"/>
+      <c r="L264" s="29"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="15"/>
@@ -4932,9 +4932,9 @@
       <c r="G265" s="27"/>
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
-      <c r="J265" s="60"/>
-      <c r="K265" s="60"/>
-      <c r="L265" s="60"/>
+      <c r="J265" s="29"/>
+      <c r="K265" s="29"/>
+      <c r="L265" s="29"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="15"/>
@@ -4946,9 +4946,9 @@
       <c r="G266" s="27"/>
       <c r="H266" s="27"/>
       <c r="I266" s="27"/>
-      <c r="J266" s="60"/>
-      <c r="K266" s="60"/>
-      <c r="L266" s="60"/>
+      <c r="J266" s="29"/>
+      <c r="K266" s="29"/>
+      <c r="L266" s="29"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="15"/>
@@ -4960,9 +4960,9 @@
       <c r="G267" s="27"/>
       <c r="H267" s="27"/>
       <c r="I267" s="27"/>
-      <c r="J267" s="60"/>
-      <c r="K267" s="60"/>
-      <c r="L267" s="60"/>
+      <c r="J267" s="29"/>
+      <c r="K267" s="29"/>
+      <c r="L267" s="29"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="15"/>
@@ -4974,9 +4974,9 @@
       <c r="G268" s="26"/>
       <c r="H268" s="26"/>
       <c r="I268" s="26"/>
-      <c r="J268" s="60"/>
-      <c r="K268" s="60"/>
-      <c r="L268" s="60"/>
+      <c r="J268" s="29"/>
+      <c r="K268" s="29"/>
+      <c r="L268" s="29"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="15"/>
@@ -4988,9 +4988,9 @@
       <c r="G269" s="26"/>
       <c r="H269" s="26"/>
       <c r="I269" s="26"/>
-      <c r="J269" s="60"/>
-      <c r="K269" s="60"/>
-      <c r="L269" s="60"/>
+      <c r="J269" s="29"/>
+      <c r="K269" s="29"/>
+      <c r="L269" s="29"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="15"/>
@@ -5002,9 +5002,9 @@
       <c r="G270" s="27"/>
       <c r="H270" s="27"/>
       <c r="I270" s="27"/>
-      <c r="J270" s="60"/>
-      <c r="K270" s="60"/>
-      <c r="L270" s="60"/>
+      <c r="J270" s="29"/>
+      <c r="K270" s="29"/>
+      <c r="L270" s="29"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="15"/>
@@ -5016,9 +5016,9 @@
       <c r="G271" s="27"/>
       <c r="H271" s="27"/>
       <c r="I271" s="27"/>
-      <c r="J271" s="60"/>
-      <c r="K271" s="60"/>
-      <c r="L271" s="60"/>
+      <c r="J271" s="29"/>
+      <c r="K271" s="29"/>
+      <c r="L271" s="29"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="15"/>
@@ -5030,9 +5030,9 @@
       <c r="G272" s="27"/>
       <c r="H272" s="27"/>
       <c r="I272" s="27"/>
-      <c r="J272" s="60"/>
-      <c r="K272" s="60"/>
-      <c r="L272" s="60"/>
+      <c r="J272" s="29"/>
+      <c r="K272" s="29"/>
+      <c r="L272" s="29"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="15"/>
@@ -5044,9 +5044,9 @@
       <c r="G273" s="27"/>
       <c r="H273" s="27"/>
       <c r="I273" s="27"/>
-      <c r="J273" s="60"/>
-      <c r="K273" s="60"/>
-      <c r="L273" s="60"/>
+      <c r="J273" s="29"/>
+      <c r="K273" s="29"/>
+      <c r="L273" s="29"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="15"/>
@@ -5058,9 +5058,9 @@
       <c r="G274" s="27"/>
       <c r="H274" s="27"/>
       <c r="I274" s="27"/>
-      <c r="J274" s="60"/>
-      <c r="K274" s="60"/>
-      <c r="L274" s="60"/>
+      <c r="J274" s="29"/>
+      <c r="K274" s="29"/>
+      <c r="L274" s="29"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="15"/>
@@ -5072,9 +5072,9 @@
       <c r="G275" s="27"/>
       <c r="H275" s="27"/>
       <c r="I275" s="27"/>
-      <c r="J275" s="60"/>
-      <c r="K275" s="60"/>
-      <c r="L275" s="60"/>
+      <c r="J275" s="29"/>
+      <c r="K275" s="29"/>
+      <c r="L275" s="29"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="15"/>
@@ -5086,9 +5086,9 @@
       <c r="G276" s="27"/>
       <c r="H276" s="27"/>
       <c r="I276" s="27"/>
-      <c r="J276" s="60"/>
-      <c r="K276" s="60"/>
-      <c r="L276" s="60"/>
+      <c r="J276" s="29"/>
+      <c r="K276" s="29"/>
+      <c r="L276" s="29"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="15"/>
@@ -5100,9 +5100,9 @@
       <c r="G277" s="27"/>
       <c r="H277" s="27"/>
       <c r="I277" s="27"/>
-      <c r="J277" s="60"/>
-      <c r="K277" s="60"/>
-      <c r="L277" s="60"/>
+      <c r="J277" s="29"/>
+      <c r="K277" s="29"/>
+      <c r="L277" s="29"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="15"/>
@@ -5114,9 +5114,9 @@
       <c r="G278" s="27"/>
       <c r="H278" s="27"/>
       <c r="I278" s="27"/>
-      <c r="J278" s="60"/>
-      <c r="K278" s="60"/>
-      <c r="L278" s="60"/>
+      <c r="J278" s="29"/>
+      <c r="K278" s="29"/>
+      <c r="L278" s="29"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="15"/>
@@ -5128,9 +5128,9 @@
       <c r="G279" s="27"/>
       <c r="H279" s="27"/>
       <c r="I279" s="27"/>
-      <c r="J279" s="60"/>
-      <c r="K279" s="60"/>
-      <c r="L279" s="60"/>
+      <c r="J279" s="29"/>
+      <c r="K279" s="29"/>
+      <c r="L279" s="29"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="15"/>
@@ -5142,9 +5142,9 @@
       <c r="G280" s="27"/>
       <c r="H280" s="27"/>
       <c r="I280" s="27"/>
-      <c r="J280" s="60"/>
-      <c r="K280" s="60"/>
-      <c r="L280" s="60"/>
+      <c r="J280" s="29"/>
+      <c r="K280" s="29"/>
+      <c r="L280" s="29"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="15"/>
@@ -5156,9 +5156,9 @@
       <c r="G281" s="27"/>
       <c r="H281" s="27"/>
       <c r="I281" s="27"/>
-      <c r="J281" s="60"/>
-      <c r="K281" s="60"/>
-      <c r="L281" s="60"/>
+      <c r="J281" s="29"/>
+      <c r="K281" s="29"/>
+      <c r="L281" s="29"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="15"/>
@@ -5170,9 +5170,9 @@
       <c r="G282" s="27"/>
       <c r="H282" s="27"/>
       <c r="I282" s="27"/>
-      <c r="J282" s="60"/>
-      <c r="K282" s="60"/>
-      <c r="L282" s="60"/>
+      <c r="J282" s="29"/>
+      <c r="K282" s="29"/>
+      <c r="L282" s="29"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="15"/>
@@ -5184,9 +5184,9 @@
       <c r="G283" s="27"/>
       <c r="H283" s="27"/>
       <c r="I283" s="27"/>
-      <c r="J283" s="60"/>
-      <c r="K283" s="60"/>
-      <c r="L283" s="60"/>
+      <c r="J283" s="29"/>
+      <c r="K283" s="29"/>
+      <c r="L283" s="29"/>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="15"/>
@@ -5198,9 +5198,9 @@
       <c r="G284" s="27"/>
       <c r="H284" s="27"/>
       <c r="I284" s="27"/>
-      <c r="J284" s="60"/>
-      <c r="K284" s="60"/>
-      <c r="L284" s="60"/>
+      <c r="J284" s="29"/>
+      <c r="K284" s="29"/>
+      <c r="L284" s="29"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="15"/>
@@ -5212,9 +5212,9 @@
       <c r="G285" s="27"/>
       <c r="H285" s="27"/>
       <c r="I285" s="27"/>
-      <c r="J285" s="60"/>
-      <c r="K285" s="60"/>
-      <c r="L285" s="60"/>
+      <c r="J285" s="29"/>
+      <c r="K285" s="29"/>
+      <c r="L285" s="29"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="15"/>
@@ -5226,9 +5226,9 @@
       <c r="G286" s="27"/>
       <c r="H286" s="27"/>
       <c r="I286" s="27"/>
-      <c r="J286" s="60"/>
-      <c r="K286" s="60"/>
-      <c r="L286" s="60"/>
+      <c r="J286" s="29"/>
+      <c r="K286" s="29"/>
+      <c r="L286" s="29"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="15"/>
@@ -5240,9 +5240,9 @@
       <c r="G287" s="27"/>
       <c r="H287" s="27"/>
       <c r="I287" s="27"/>
-      <c r="J287" s="60"/>
-      <c r="K287" s="60"/>
-      <c r="L287" s="60"/>
+      <c r="J287" s="29"/>
+      <c r="K287" s="29"/>
+      <c r="L287" s="29"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="15"/>
@@ -5254,9 +5254,9 @@
       <c r="G288" s="27"/>
       <c r="H288" s="27"/>
       <c r="I288" s="27"/>
-      <c r="J288" s="60"/>
-      <c r="K288" s="60"/>
-      <c r="L288" s="60"/>
+      <c r="J288" s="29"/>
+      <c r="K288" s="29"/>
+      <c r="L288" s="29"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="15"/>
@@ -5268,9 +5268,9 @@
       <c r="G289" s="27"/>
       <c r="H289" s="27"/>
       <c r="I289" s="27"/>
-      <c r="J289" s="60"/>
-      <c r="K289" s="60"/>
-      <c r="L289" s="60"/>
+      <c r="J289" s="29"/>
+      <c r="K289" s="29"/>
+      <c r="L289" s="29"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="15"/>
@@ -5282,9 +5282,9 @@
       <c r="G290" s="26"/>
       <c r="H290" s="26"/>
       <c r="I290" s="26"/>
-      <c r="J290" s="60"/>
-      <c r="K290" s="60"/>
-      <c r="L290" s="60"/>
+      <c r="J290" s="29"/>
+      <c r="K290" s="29"/>
+      <c r="L290" s="29"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="15"/>
@@ -5296,9 +5296,9 @@
       <c r="G291" s="26"/>
       <c r="H291" s="26"/>
       <c r="I291" s="26"/>
-      <c r="J291" s="60"/>
-      <c r="K291" s="60"/>
-      <c r="L291" s="60"/>
+      <c r="J291" s="29"/>
+      <c r="K291" s="29"/>
+      <c r="L291" s="29"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="15"/>
@@ -5310,9 +5310,9 @@
       <c r="G292" s="27"/>
       <c r="H292" s="27"/>
       <c r="I292" s="27"/>
-      <c r="J292" s="60"/>
-      <c r="K292" s="60"/>
-      <c r="L292" s="60"/>
+      <c r="J292" s="29"/>
+      <c r="K292" s="29"/>
+      <c r="L292" s="29"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="15"/>
@@ -5324,9 +5324,9 @@
       <c r="G293" s="27"/>
       <c r="H293" s="27"/>
       <c r="I293" s="27"/>
-      <c r="J293" s="60"/>
-      <c r="K293" s="60"/>
-      <c r="L293" s="60"/>
+      <c r="J293" s="29"/>
+      <c r="K293" s="29"/>
+      <c r="L293" s="29"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="15"/>
@@ -5338,9 +5338,9 @@
       <c r="G294" s="27"/>
       <c r="H294" s="27"/>
       <c r="I294" s="27"/>
-      <c r="J294" s="60"/>
-      <c r="K294" s="60"/>
-      <c r="L294" s="60"/>
+      <c r="J294" s="29"/>
+      <c r="K294" s="29"/>
+      <c r="L294" s="29"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="15"/>
@@ -5352,9 +5352,9 @@
       <c r="G295" s="27"/>
       <c r="H295" s="27"/>
       <c r="I295" s="27"/>
-      <c r="J295" s="60"/>
-      <c r="K295" s="60"/>
-      <c r="L295" s="60"/>
+      <c r="J295" s="29"/>
+      <c r="K295" s="29"/>
+      <c r="L295" s="29"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="15"/>
@@ -5366,9 +5366,9 @@
       <c r="G296" s="27"/>
       <c r="H296" s="27"/>
       <c r="I296" s="27"/>
-      <c r="J296" s="60"/>
-      <c r="K296" s="60"/>
-      <c r="L296" s="60"/>
+      <c r="J296" s="29"/>
+      <c r="K296" s="29"/>
+      <c r="L296" s="29"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="15"/>
@@ -5380,9 +5380,9 @@
       <c r="G297" s="27"/>
       <c r="H297" s="27"/>
       <c r="I297" s="27"/>
-      <c r="J297" s="60"/>
-      <c r="K297" s="60"/>
-      <c r="L297" s="60"/>
+      <c r="J297" s="29"/>
+      <c r="K297" s="29"/>
+      <c r="L297" s="29"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="15"/>
@@ -5394,9 +5394,9 @@
       <c r="G298" s="27"/>
       <c r="H298" s="27"/>
       <c r="I298" s="27"/>
-      <c r="J298" s="60"/>
-      <c r="K298" s="60"/>
-      <c r="L298" s="60"/>
+      <c r="J298" s="29"/>
+      <c r="K298" s="29"/>
+      <c r="L298" s="29"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="15"/>
@@ -5408,9 +5408,9 @@
       <c r="G299" s="27"/>
       <c r="H299" s="27"/>
       <c r="I299" s="27"/>
-      <c r="J299" s="60"/>
-      <c r="K299" s="60"/>
-      <c r="L299" s="60"/>
+      <c r="J299" s="29"/>
+      <c r="K299" s="29"/>
+      <c r="L299" s="29"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="15"/>
@@ -5422,9 +5422,9 @@
       <c r="G300" s="27"/>
       <c r="H300" s="27"/>
       <c r="I300" s="27"/>
-      <c r="J300" s="60"/>
-      <c r="K300" s="60"/>
-      <c r="L300" s="60"/>
+      <c r="J300" s="29"/>
+      <c r="K300" s="29"/>
+      <c r="L300" s="29"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="15"/>
@@ -5436,9 +5436,9 @@
       <c r="G301" s="27"/>
       <c r="H301" s="27"/>
       <c r="I301" s="27"/>
-      <c r="J301" s="60"/>
-      <c r="K301" s="60"/>
-      <c r="L301" s="60"/>
+      <c r="J301" s="29"/>
+      <c r="K301" s="29"/>
+      <c r="L301" s="29"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="15"/>
@@ -5450,9 +5450,9 @@
       <c r="G302" s="27"/>
       <c r="H302" s="27"/>
       <c r="I302" s="27"/>
-      <c r="J302" s="60"/>
-      <c r="K302" s="60"/>
-      <c r="L302" s="60"/>
+      <c r="J302" s="29"/>
+      <c r="K302" s="29"/>
+      <c r="L302" s="29"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="15"/>
@@ -5464,9 +5464,9 @@
       <c r="G303" s="27"/>
       <c r="H303" s="27"/>
       <c r="I303" s="27"/>
-      <c r="J303" s="60"/>
-      <c r="K303" s="60"/>
-      <c r="L303" s="60"/>
+      <c r="J303" s="29"/>
+      <c r="K303" s="29"/>
+      <c r="L303" s="29"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="15"/>
@@ -5478,9 +5478,9 @@
       <c r="G304" s="27"/>
       <c r="H304" s="27"/>
       <c r="I304" s="27"/>
-      <c r="J304" s="60"/>
-      <c r="K304" s="60"/>
-      <c r="L304" s="60"/>
+      <c r="J304" s="29"/>
+      <c r="K304" s="29"/>
+      <c r="L304" s="29"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="15"/>
@@ -5492,9 +5492,9 @@
       <c r="G305" s="27"/>
       <c r="H305" s="27"/>
       <c r="I305" s="27"/>
-      <c r="J305" s="60"/>
-      <c r="K305" s="60"/>
-      <c r="L305" s="60"/>
+      <c r="J305" s="29"/>
+      <c r="K305" s="29"/>
+      <c r="L305" s="29"/>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="15"/>
@@ -5506,9 +5506,9 @@
       <c r="G306" s="27"/>
       <c r="H306" s="27"/>
       <c r="I306" s="27"/>
-      <c r="J306" s="60"/>
-      <c r="K306" s="60"/>
-      <c r="L306" s="60"/>
+      <c r="J306" s="29"/>
+      <c r="K306" s="29"/>
+      <c r="L306" s="29"/>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="15"/>
@@ -5520,9 +5520,9 @@
       <c r="G307" s="27"/>
       <c r="H307" s="27"/>
       <c r="I307" s="27"/>
-      <c r="J307" s="60"/>
-      <c r="K307" s="60"/>
-      <c r="L307" s="60"/>
+      <c r="J307" s="29"/>
+      <c r="K307" s="29"/>
+      <c r="L307" s="29"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="15"/>
@@ -5534,9 +5534,9 @@
       <c r="G308" s="27"/>
       <c r="H308" s="27"/>
       <c r="I308" s="27"/>
-      <c r="J308" s="60"/>
-      <c r="K308" s="60"/>
-      <c r="L308" s="60"/>
+      <c r="J308" s="29"/>
+      <c r="K308" s="29"/>
+      <c r="L308" s="29"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="15"/>
@@ -5548,9 +5548,9 @@
       <c r="G309" s="27"/>
       <c r="H309" s="27"/>
       <c r="I309" s="27"/>
-      <c r="J309" s="60"/>
-      <c r="K309" s="60"/>
-      <c r="L309" s="60"/>
+      <c r="J309" s="29"/>
+      <c r="K309" s="29"/>
+      <c r="L309" s="29"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="15"/>
@@ -5562,9 +5562,9 @@
       <c r="G310" s="27"/>
       <c r="H310" s="27"/>
       <c r="I310" s="27"/>
-      <c r="J310" s="60"/>
-      <c r="K310" s="60"/>
-      <c r="L310" s="60"/>
+      <c r="J310" s="29"/>
+      <c r="K310" s="29"/>
+      <c r="L310" s="29"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="15"/>
@@ -5576,9 +5576,9 @@
       <c r="G311" s="27"/>
       <c r="H311" s="27"/>
       <c r="I311" s="27"/>
-      <c r="J311" s="60"/>
-      <c r="K311" s="60"/>
-      <c r="L311" s="60"/>
+      <c r="J311" s="29"/>
+      <c r="K311" s="29"/>
+      <c r="L311" s="29"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="15"/>
@@ -5590,9 +5590,9 @@
       <c r="G312" s="26"/>
       <c r="H312" s="26"/>
       <c r="I312" s="26"/>
-      <c r="J312" s="60"/>
-      <c r="K312" s="60"/>
-      <c r="L312" s="60"/>
+      <c r="J312" s="29"/>
+      <c r="K312" s="29"/>
+      <c r="L312" s="29"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="15"/>
@@ -5604,9 +5604,9 @@
       <c r="G313" s="26"/>
       <c r="H313" s="26"/>
       <c r="I313" s="26"/>
-      <c r="J313" s="60"/>
-      <c r="K313" s="60"/>
-      <c r="L313" s="60"/>
+      <c r="J313" s="29"/>
+      <c r="K313" s="29"/>
+      <c r="L313" s="29"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="15"/>
@@ -5618,9 +5618,9 @@
       <c r="G314" s="27"/>
       <c r="H314" s="27"/>
       <c r="I314" s="27"/>
-      <c r="J314" s="60"/>
-      <c r="K314" s="60"/>
-      <c r="L314" s="60"/>
+      <c r="J314" s="29"/>
+      <c r="K314" s="29"/>
+      <c r="L314" s="29"/>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="15"/>
@@ -5632,9 +5632,9 @@
       <c r="G315" s="27"/>
       <c r="H315" s="27"/>
       <c r="I315" s="27"/>
-      <c r="J315" s="60"/>
-      <c r="K315" s="60"/>
-      <c r="L315" s="60"/>
+      <c r="J315" s="29"/>
+      <c r="K315" s="29"/>
+      <c r="L315" s="29"/>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="15"/>
@@ -5646,9 +5646,9 @@
       <c r="G316" s="27"/>
       <c r="H316" s="27"/>
       <c r="I316" s="27"/>
-      <c r="J316" s="60"/>
-      <c r="K316" s="60"/>
-      <c r="L316" s="60"/>
+      <c r="J316" s="29"/>
+      <c r="K316" s="29"/>
+      <c r="L316" s="29"/>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="15"/>
@@ -5660,9 +5660,9 @@
       <c r="G317" s="27"/>
       <c r="H317" s="27"/>
       <c r="I317" s="27"/>
-      <c r="J317" s="60"/>
-      <c r="K317" s="60"/>
-      <c r="L317" s="60"/>
+      <c r="J317" s="29"/>
+      <c r="K317" s="29"/>
+      <c r="L317" s="29"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="15"/>
@@ -5674,9 +5674,9 @@
       <c r="G318" s="27"/>
       <c r="H318" s="27"/>
       <c r="I318" s="27"/>
-      <c r="J318" s="60"/>
-      <c r="K318" s="60"/>
-      <c r="L318" s="60"/>
+      <c r="J318" s="29"/>
+      <c r="K318" s="29"/>
+      <c r="L318" s="29"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="15"/>
@@ -5688,9 +5688,9 @@
       <c r="G319" s="27"/>
       <c r="H319" s="27"/>
       <c r="I319" s="27"/>
-      <c r="J319" s="60"/>
-      <c r="K319" s="60"/>
-      <c r="L319" s="60"/>
+      <c r="J319" s="29"/>
+      <c r="K319" s="29"/>
+      <c r="L319" s="29"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="15"/>
@@ -5702,9 +5702,9 @@
       <c r="G320" s="27"/>
       <c r="H320" s="27"/>
       <c r="I320" s="27"/>
-      <c r="J320" s="60"/>
-      <c r="K320" s="60"/>
-      <c r="L320" s="60"/>
+      <c r="J320" s="29"/>
+      <c r="K320" s="29"/>
+      <c r="L320" s="29"/>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="15"/>
@@ -5716,9 +5716,9 @@
       <c r="G321" s="27"/>
       <c r="H321" s="27"/>
       <c r="I321" s="27"/>
-      <c r="J321" s="60"/>
-      <c r="K321" s="60"/>
-      <c r="L321" s="60"/>
+      <c r="J321" s="29"/>
+      <c r="K321" s="29"/>
+      <c r="L321" s="29"/>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="15"/>
@@ -5730,9 +5730,9 @@
       <c r="G322" s="27"/>
       <c r="H322" s="27"/>
       <c r="I322" s="27"/>
-      <c r="J322" s="60"/>
-      <c r="K322" s="60"/>
-      <c r="L322" s="60"/>
+      <c r="J322" s="29"/>
+      <c r="K322" s="29"/>
+      <c r="L322" s="29"/>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="15"/>
@@ -5744,9 +5744,9 @@
       <c r="G323" s="27"/>
       <c r="H323" s="27"/>
       <c r="I323" s="27"/>
-      <c r="J323" s="60"/>
-      <c r="K323" s="60"/>
-      <c r="L323" s="60"/>
+      <c r="J323" s="29"/>
+      <c r="K323" s="29"/>
+      <c r="L323" s="29"/>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="15"/>
@@ -5758,9 +5758,9 @@
       <c r="G324" s="27"/>
       <c r="H324" s="27"/>
       <c r="I324" s="27"/>
-      <c r="J324" s="60"/>
-      <c r="K324" s="60"/>
-      <c r="L324" s="60"/>
+      <c r="J324" s="29"/>
+      <c r="K324" s="29"/>
+      <c r="L324" s="29"/>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="15"/>
@@ -5772,9 +5772,9 @@
       <c r="G325" s="27"/>
       <c r="H325" s="27"/>
       <c r="I325" s="27"/>
-      <c r="J325" s="60"/>
-      <c r="K325" s="60"/>
-      <c r="L325" s="60"/>
+      <c r="J325" s="29"/>
+      <c r="K325" s="29"/>
+      <c r="L325" s="29"/>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="15"/>
@@ -5786,9 +5786,9 @@
       <c r="G326" s="27"/>
       <c r="H326" s="27"/>
       <c r="I326" s="27"/>
-      <c r="J326" s="60"/>
-      <c r="K326" s="60"/>
-      <c r="L326" s="60"/>
+      <c r="J326" s="29"/>
+      <c r="K326" s="29"/>
+      <c r="L326" s="29"/>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="15"/>
@@ -5800,9 +5800,9 @@
       <c r="G327" s="27"/>
       <c r="H327" s="27"/>
       <c r="I327" s="27"/>
-      <c r="J327" s="60"/>
-      <c r="K327" s="60"/>
-      <c r="L327" s="60"/>
+      <c r="J327" s="29"/>
+      <c r="K327" s="29"/>
+      <c r="L327" s="29"/>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="15"/>
@@ -5814,9 +5814,9 @@
       <c r="G328" s="27"/>
       <c r="H328" s="27"/>
       <c r="I328" s="27"/>
-      <c r="J328" s="60"/>
-      <c r="K328" s="60"/>
-      <c r="L328" s="60"/>
+      <c r="J328" s="29"/>
+      <c r="K328" s="29"/>
+      <c r="L328" s="29"/>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="15"/>
@@ -5828,9 +5828,9 @@
       <c r="G329" s="27"/>
       <c r="H329" s="27"/>
       <c r="I329" s="27"/>
-      <c r="J329" s="60"/>
-      <c r="K329" s="60"/>
-      <c r="L329" s="60"/>
+      <c r="J329" s="29"/>
+      <c r="K329" s="29"/>
+      <c r="L329" s="29"/>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="15"/>
@@ -5842,9 +5842,9 @@
       <c r="G330" s="27"/>
       <c r="H330" s="27"/>
       <c r="I330" s="27"/>
-      <c r="J330" s="60"/>
-      <c r="K330" s="60"/>
-      <c r="L330" s="60"/>
+      <c r="J330" s="29"/>
+      <c r="K330" s="29"/>
+      <c r="L330" s="29"/>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="15"/>
@@ -5856,9 +5856,9 @@
       <c r="G331" s="27"/>
       <c r="H331" s="27"/>
       <c r="I331" s="27"/>
-      <c r="J331" s="60"/>
-      <c r="K331" s="60"/>
-      <c r="L331" s="60"/>
+      <c r="J331" s="29"/>
+      <c r="K331" s="29"/>
+      <c r="L331" s="29"/>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="15"/>
@@ -5870,9 +5870,9 @@
       <c r="G332" s="27"/>
       <c r="H332" s="27"/>
       <c r="I332" s="27"/>
-      <c r="J332" s="60"/>
-      <c r="K332" s="60"/>
-      <c r="L332" s="60"/>
+      <c r="J332" s="29"/>
+      <c r="K332" s="29"/>
+      <c r="L332" s="29"/>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="15"/>
@@ -5884,9 +5884,9 @@
       <c r="G333" s="27"/>
       <c r="H333" s="27"/>
       <c r="I333" s="27"/>
-      <c r="J333" s="60"/>
-      <c r="K333" s="60"/>
-      <c r="L333" s="60"/>
+      <c r="J333" s="29"/>
+      <c r="K333" s="29"/>
+      <c r="L333" s="29"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="15"/>
@@ -5898,9 +5898,9 @@
       <c r="G334" s="26"/>
       <c r="H334" s="26"/>
       <c r="I334" s="26"/>
-      <c r="J334" s="60"/>
-      <c r="K334" s="60"/>
-      <c r="L334" s="60"/>
+      <c r="J334" s="29"/>
+      <c r="K334" s="29"/>
+      <c r="L334" s="29"/>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="15"/>
@@ -5912,9 +5912,9 @@
       <c r="G335" s="26"/>
       <c r="H335" s="26"/>
       <c r="I335" s="26"/>
-      <c r="J335" s="60"/>
-      <c r="K335" s="60"/>
-      <c r="L335" s="60"/>
+      <c r="J335" s="29"/>
+      <c r="K335" s="29"/>
+      <c r="L335" s="29"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="15"/>
@@ -5926,9 +5926,9 @@
       <c r="G336" s="27"/>
       <c r="H336" s="27"/>
       <c r="I336" s="27"/>
-      <c r="J336" s="60"/>
-      <c r="K336" s="60"/>
-      <c r="L336" s="60"/>
+      <c r="J336" s="29"/>
+      <c r="K336" s="29"/>
+      <c r="L336" s="29"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="15"/>
@@ -5940,9 +5940,9 @@
       <c r="G337" s="27"/>
       <c r="H337" s="27"/>
       <c r="I337" s="27"/>
-      <c r="J337" s="60"/>
-      <c r="K337" s="60"/>
-      <c r="L337" s="60"/>
+      <c r="J337" s="29"/>
+      <c r="K337" s="29"/>
+      <c r="L337" s="29"/>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="15"/>
@@ -5954,9 +5954,9 @@
       <c r="G338" s="27"/>
       <c r="H338" s="27"/>
       <c r="I338" s="27"/>
-      <c r="J338" s="60"/>
-      <c r="K338" s="60"/>
-      <c r="L338" s="60"/>
+      <c r="J338" s="29"/>
+      <c r="K338" s="29"/>
+      <c r="L338" s="29"/>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="15"/>
@@ -5968,9 +5968,9 @@
       <c r="G339" s="27"/>
       <c r="H339" s="27"/>
       <c r="I339" s="27"/>
-      <c r="J339" s="60"/>
-      <c r="K339" s="60"/>
-      <c r="L339" s="60"/>
+      <c r="J339" s="29"/>
+      <c r="K339" s="29"/>
+      <c r="L339" s="29"/>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="15"/>
@@ -5982,9 +5982,9 @@
       <c r="G340" s="27"/>
       <c r="H340" s="27"/>
       <c r="I340" s="27"/>
-      <c r="J340" s="60"/>
-      <c r="K340" s="60"/>
-      <c r="L340" s="60"/>
+      <c r="J340" s="29"/>
+      <c r="K340" s="29"/>
+      <c r="L340" s="29"/>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="15"/>
@@ -5996,9 +5996,9 @@
       <c r="G341" s="27"/>
       <c r="H341" s="27"/>
       <c r="I341" s="27"/>
-      <c r="J341" s="60"/>
-      <c r="K341" s="60"/>
-      <c r="L341" s="60"/>
+      <c r="J341" s="29"/>
+      <c r="K341" s="29"/>
+      <c r="L341" s="29"/>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="15"/>
@@ -6010,9 +6010,9 @@
       <c r="G342" s="27"/>
       <c r="H342" s="27"/>
       <c r="I342" s="27"/>
-      <c r="J342" s="60"/>
-      <c r="K342" s="60"/>
-      <c r="L342" s="60"/>
+      <c r="J342" s="29"/>
+      <c r="K342" s="29"/>
+      <c r="L342" s="29"/>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="15"/>
@@ -6024,9 +6024,9 @@
       <c r="G343" s="27"/>
       <c r="H343" s="27"/>
       <c r="I343" s="27"/>
-      <c r="J343" s="60"/>
-      <c r="K343" s="60"/>
-      <c r="L343" s="60"/>
+      <c r="J343" s="29"/>
+      <c r="K343" s="29"/>
+      <c r="L343" s="29"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="15"/>
@@ -6038,9 +6038,9 @@
       <c r="G344" s="27"/>
       <c r="H344" s="27"/>
       <c r="I344" s="27"/>
-      <c r="J344" s="60"/>
-      <c r="K344" s="60"/>
-      <c r="L344" s="60"/>
+      <c r="J344" s="29"/>
+      <c r="K344" s="29"/>
+      <c r="L344" s="29"/>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="15"/>
@@ -6052,9 +6052,9 @@
       <c r="G345" s="27"/>
       <c r="H345" s="27"/>
       <c r="I345" s="27"/>
-      <c r="J345" s="60"/>
-      <c r="K345" s="60"/>
-      <c r="L345" s="60"/>
+      <c r="J345" s="29"/>
+      <c r="K345" s="29"/>
+      <c r="L345" s="29"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="15"/>
@@ -6066,9 +6066,9 @@
       <c r="G346" s="27"/>
       <c r="H346" s="27"/>
       <c r="I346" s="27"/>
-      <c r="J346" s="60"/>
-      <c r="K346" s="60"/>
-      <c r="L346" s="60"/>
+      <c r="J346" s="29"/>
+      <c r="K346" s="29"/>
+      <c r="L346" s="29"/>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="15"/>
@@ -6080,9 +6080,9 @@
       <c r="G347" s="27"/>
       <c r="H347" s="27"/>
       <c r="I347" s="27"/>
-      <c r="J347" s="60"/>
-      <c r="K347" s="60"/>
-      <c r="L347" s="60"/>
+      <c r="J347" s="29"/>
+      <c r="K347" s="29"/>
+      <c r="L347" s="29"/>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="15"/>
@@ -6094,9 +6094,9 @@
       <c r="G348" s="27"/>
       <c r="H348" s="27"/>
       <c r="I348" s="27"/>
-      <c r="J348" s="60"/>
-      <c r="K348" s="60"/>
-      <c r="L348" s="60"/>
+      <c r="J348" s="29"/>
+      <c r="K348" s="29"/>
+      <c r="L348" s="29"/>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="15"/>
@@ -6108,9 +6108,9 @@
       <c r="G349" s="27"/>
       <c r="H349" s="27"/>
       <c r="I349" s="27"/>
-      <c r="J349" s="60"/>
-      <c r="K349" s="60"/>
-      <c r="L349" s="60"/>
+      <c r="J349" s="29"/>
+      <c r="K349" s="29"/>
+      <c r="L349" s="29"/>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="15"/>
@@ -6122,9 +6122,9 @@
       <c r="G350" s="27"/>
       <c r="H350" s="27"/>
       <c r="I350" s="27"/>
-      <c r="J350" s="60"/>
-      <c r="K350" s="60"/>
-      <c r="L350" s="60"/>
+      <c r="J350" s="29"/>
+      <c r="K350" s="29"/>
+      <c r="L350" s="29"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="15"/>
@@ -6136,9 +6136,9 @@
       <c r="G351" s="27"/>
       <c r="H351" s="27"/>
       <c r="I351" s="27"/>
-      <c r="J351" s="60"/>
-      <c r="K351" s="60"/>
-      <c r="L351" s="60"/>
+      <c r="J351" s="29"/>
+      <c r="K351" s="29"/>
+      <c r="L351" s="29"/>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="15"/>
@@ -6150,9 +6150,9 @@
       <c r="G352" s="27"/>
       <c r="H352" s="27"/>
       <c r="I352" s="27"/>
-      <c r="J352" s="60"/>
-      <c r="K352" s="60"/>
-      <c r="L352" s="60"/>
+      <c r="J352" s="29"/>
+      <c r="K352" s="29"/>
+      <c r="L352" s="29"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="15"/>
@@ -6164,9 +6164,9 @@
       <c r="G353" s="27"/>
       <c r="H353" s="27"/>
       <c r="I353" s="27"/>
-      <c r="J353" s="60"/>
-      <c r="K353" s="60"/>
-      <c r="L353" s="60"/>
+      <c r="J353" s="29"/>
+      <c r="K353" s="29"/>
+      <c r="L353" s="29"/>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="15"/>
@@ -6178,9 +6178,9 @@
       <c r="G354" s="27"/>
       <c r="H354" s="27"/>
       <c r="I354" s="27"/>
-      <c r="J354" s="60"/>
-      <c r="K354" s="60"/>
-      <c r="L354" s="60"/>
+      <c r="J354" s="29"/>
+      <c r="K354" s="29"/>
+      <c r="L354" s="29"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="15"/>
@@ -6192,9 +6192,9 @@
       <c r="G355" s="27"/>
       <c r="H355" s="27"/>
       <c r="I355" s="27"/>
-      <c r="J355" s="60"/>
-      <c r="K355" s="60"/>
-      <c r="L355" s="60"/>
+      <c r="J355" s="29"/>
+      <c r="K355" s="29"/>
+      <c r="L355" s="29"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="15"/>
@@ -6206,9 +6206,9 @@
       <c r="G356" s="26"/>
       <c r="H356" s="26"/>
       <c r="I356" s="26"/>
-      <c r="J356" s="60"/>
-      <c r="K356" s="60"/>
-      <c r="L356" s="60"/>
+      <c r="J356" s="29"/>
+      <c r="K356" s="29"/>
+      <c r="L356" s="29"/>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="15"/>
@@ -6220,9 +6220,9 @@
       <c r="G357" s="26"/>
       <c r="H357" s="26"/>
       <c r="I357" s="26"/>
-      <c r="J357" s="60"/>
-      <c r="K357" s="60"/>
-      <c r="L357" s="60"/>
+      <c r="J357" s="29"/>
+      <c r="K357" s="29"/>
+      <c r="L357" s="29"/>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="15"/>
@@ -6234,9 +6234,9 @@
       <c r="G358" s="27"/>
       <c r="H358" s="27"/>
       <c r="I358" s="27"/>
-      <c r="J358" s="60"/>
-      <c r="K358" s="60"/>
-      <c r="L358" s="60"/>
+      <c r="J358" s="29"/>
+      <c r="K358" s="29"/>
+      <c r="L358" s="29"/>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="15"/>
@@ -6248,9 +6248,9 @@
       <c r="G359" s="27"/>
       <c r="H359" s="27"/>
       <c r="I359" s="27"/>
-      <c r="J359" s="60"/>
-      <c r="K359" s="60"/>
-      <c r="L359" s="60"/>
+      <c r="J359" s="29"/>
+      <c r="K359" s="29"/>
+      <c r="L359" s="29"/>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="15"/>
@@ -6262,9 +6262,9 @@
       <c r="G360" s="27"/>
       <c r="H360" s="27"/>
       <c r="I360" s="27"/>
-      <c r="J360" s="60"/>
-      <c r="K360" s="60"/>
-      <c r="L360" s="60"/>
+      <c r="J360" s="29"/>
+      <c r="K360" s="29"/>
+      <c r="L360" s="29"/>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="15"/>
@@ -6276,9 +6276,9 @@
       <c r="G361" s="27"/>
       <c r="H361" s="27"/>
       <c r="I361" s="27"/>
-      <c r="J361" s="60"/>
-      <c r="K361" s="60"/>
-      <c r="L361" s="60"/>
+      <c r="J361" s="29"/>
+      <c r="K361" s="29"/>
+      <c r="L361" s="29"/>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="15"/>
@@ -6290,9 +6290,9 @@
       <c r="G362" s="27"/>
       <c r="H362" s="27"/>
       <c r="I362" s="27"/>
-      <c r="J362" s="60"/>
-      <c r="K362" s="60"/>
-      <c r="L362" s="60"/>
+      <c r="J362" s="29"/>
+      <c r="K362" s="29"/>
+      <c r="L362" s="29"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="15"/>
@@ -6304,9 +6304,9 @@
       <c r="G363" s="27"/>
       <c r="H363" s="27"/>
       <c r="I363" s="27"/>
-      <c r="J363" s="60"/>
-      <c r="K363" s="60"/>
-      <c r="L363" s="60"/>
+      <c r="J363" s="29"/>
+      <c r="K363" s="29"/>
+      <c r="L363" s="29"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="15"/>
@@ -6318,9 +6318,9 @@
       <c r="G364" s="27"/>
       <c r="H364" s="27"/>
       <c r="I364" s="27"/>
-      <c r="J364" s="60"/>
-      <c r="K364" s="60"/>
-      <c r="L364" s="60"/>
+      <c r="J364" s="29"/>
+      <c r="K364" s="29"/>
+      <c r="L364" s="29"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="15"/>
@@ -6332,9 +6332,9 @@
       <c r="G365" s="27"/>
       <c r="H365" s="27"/>
       <c r="I365" s="27"/>
-      <c r="J365" s="60"/>
-      <c r="K365" s="60"/>
-      <c r="L365" s="60"/>
+      <c r="J365" s="29"/>
+      <c r="K365" s="29"/>
+      <c r="L365" s="29"/>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="15"/>
@@ -6346,9 +6346,9 @@
       <c r="G366" s="27"/>
       <c r="H366" s="27"/>
       <c r="I366" s="27"/>
-      <c r="J366" s="60"/>
-      <c r="K366" s="60"/>
-      <c r="L366" s="60"/>
+      <c r="J366" s="29"/>
+      <c r="K366" s="29"/>
+      <c r="L366" s="29"/>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="15"/>
@@ -6360,9 +6360,9 @@
       <c r="G367" s="27"/>
       <c r="H367" s="27"/>
       <c r="I367" s="27"/>
-      <c r="J367" s="60"/>
-      <c r="K367" s="60"/>
-      <c r="L367" s="60"/>
+      <c r="J367" s="29"/>
+      <c r="K367" s="29"/>
+      <c r="L367" s="29"/>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="15"/>
@@ -6374,9 +6374,9 @@
       <c r="G368" s="27"/>
       <c r="H368" s="27"/>
       <c r="I368" s="27"/>
-      <c r="J368" s="60"/>
-      <c r="K368" s="60"/>
-      <c r="L368" s="60"/>
+      <c r="J368" s="29"/>
+      <c r="K368" s="29"/>
+      <c r="L368" s="29"/>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="15"/>
@@ -6388,9 +6388,9 @@
       <c r="G369" s="27"/>
       <c r="H369" s="27"/>
       <c r="I369" s="27"/>
-      <c r="J369" s="60"/>
-      <c r="K369" s="60"/>
-      <c r="L369" s="60"/>
+      <c r="J369" s="29"/>
+      <c r="K369" s="29"/>
+      <c r="L369" s="29"/>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="15"/>
@@ -6402,9 +6402,9 @@
       <c r="G370" s="27"/>
       <c r="H370" s="27"/>
       <c r="I370" s="27"/>
-      <c r="J370" s="60"/>
-      <c r="K370" s="60"/>
-      <c r="L370" s="60"/>
+      <c r="J370" s="29"/>
+      <c r="K370" s="29"/>
+      <c r="L370" s="29"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="15"/>
@@ -6416,9 +6416,9 @@
       <c r="G371" s="27"/>
       <c r="H371" s="27"/>
       <c r="I371" s="27"/>
-      <c r="J371" s="60"/>
-      <c r="K371" s="60"/>
-      <c r="L371" s="60"/>
+      <c r="J371" s="29"/>
+      <c r="K371" s="29"/>
+      <c r="L371" s="29"/>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="15"/>
@@ -6430,9 +6430,9 @@
       <c r="G372" s="27"/>
       <c r="H372" s="27"/>
       <c r="I372" s="27"/>
-      <c r="J372" s="60"/>
-      <c r="K372" s="60"/>
-      <c r="L372" s="60"/>
+      <c r="J372" s="29"/>
+      <c r="K372" s="29"/>
+      <c r="L372" s="29"/>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="15"/>
@@ -6444,9 +6444,9 @@
       <c r="G373" s="27"/>
       <c r="H373" s="27"/>
       <c r="I373" s="27"/>
-      <c r="J373" s="60"/>
-      <c r="K373" s="60"/>
-      <c r="L373" s="60"/>
+      <c r="J373" s="29"/>
+      <c r="K373" s="29"/>
+      <c r="L373" s="29"/>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="15"/>
@@ -6458,9 +6458,9 @@
       <c r="G374" s="27"/>
       <c r="H374" s="27"/>
       <c r="I374" s="27"/>
-      <c r="J374" s="60"/>
-      <c r="K374" s="60"/>
-      <c r="L374" s="60"/>
+      <c r="J374" s="29"/>
+      <c r="K374" s="29"/>
+      <c r="L374" s="29"/>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="15"/>
@@ -6472,9 +6472,9 @@
       <c r="G375" s="27"/>
       <c r="H375" s="27"/>
       <c r="I375" s="27"/>
-      <c r="J375" s="60"/>
-      <c r="K375" s="60"/>
-      <c r="L375" s="60"/>
+      <c r="J375" s="29"/>
+      <c r="K375" s="29"/>
+      <c r="L375" s="29"/>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="15"/>
@@ -6486,9 +6486,9 @@
       <c r="G376" s="27"/>
       <c r="H376" s="27"/>
       <c r="I376" s="27"/>
-      <c r="J376" s="60"/>
-      <c r="K376" s="60"/>
-      <c r="L376" s="60"/>
+      <c r="J376" s="29"/>
+      <c r="K376" s="29"/>
+      <c r="L376" s="29"/>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="15"/>
@@ -6500,9 +6500,9 @@
       <c r="G377" s="27"/>
       <c r="H377" s="27"/>
       <c r="I377" s="27"/>
-      <c r="J377" s="60"/>
-      <c r="K377" s="60"/>
-      <c r="L377" s="60"/>
+      <c r="J377" s="29"/>
+      <c r="K377" s="29"/>
+      <c r="L377" s="29"/>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="15"/>
@@ -6514,9 +6514,9 @@
       <c r="G378" s="26"/>
       <c r="H378" s="26"/>
       <c r="I378" s="26"/>
-      <c r="J378" s="60"/>
-      <c r="K378" s="60"/>
-      <c r="L378" s="60"/>
+      <c r="J378" s="29"/>
+      <c r="K378" s="29"/>
+      <c r="L378" s="29"/>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
@@ -6528,9 +6528,9 @@
       <c r="G379" s="26"/>
       <c r="H379" s="26"/>
       <c r="I379" s="26"/>
-      <c r="J379" s="60"/>
-      <c r="K379" s="60"/>
-      <c r="L379" s="60"/>
+      <c r="J379" s="29"/>
+      <c r="K379" s="29"/>
+      <c r="L379" s="29"/>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="15"/>
@@ -6542,9 +6542,9 @@
       <c r="G380" s="27"/>
       <c r="H380" s="27"/>
       <c r="I380" s="27"/>
-      <c r="J380" s="60"/>
-      <c r="K380" s="60"/>
-      <c r="L380" s="60"/>
+      <c r="J380" s="29"/>
+      <c r="K380" s="29"/>
+      <c r="L380" s="29"/>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="15"/>
@@ -6556,9 +6556,9 @@
       <c r="G381" s="27"/>
       <c r="H381" s="27"/>
       <c r="I381" s="27"/>
-      <c r="J381" s="60"/>
-      <c r="K381" s="60"/>
-      <c r="L381" s="60"/>
+      <c r="J381" s="29"/>
+      <c r="K381" s="29"/>
+      <c r="L381" s="29"/>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="15"/>
@@ -6570,9 +6570,9 @@
       <c r="G382" s="27"/>
       <c r="H382" s="27"/>
       <c r="I382" s="27"/>
-      <c r="J382" s="60"/>
-      <c r="K382" s="60"/>
-      <c r="L382" s="60"/>
+      <c r="J382" s="29"/>
+      <c r="K382" s="29"/>
+      <c r="L382" s="29"/>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="15"/>
@@ -6584,9 +6584,9 @@
       <c r="G383" s="27"/>
       <c r="H383" s="27"/>
       <c r="I383" s="27"/>
-      <c r="J383" s="60"/>
-      <c r="K383" s="60"/>
-      <c r="L383" s="60"/>
+      <c r="J383" s="29"/>
+      <c r="K383" s="29"/>
+      <c r="L383" s="29"/>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="15"/>
@@ -6598,9 +6598,9 @@
       <c r="G384" s="27"/>
       <c r="H384" s="27"/>
       <c r="I384" s="27"/>
-      <c r="J384" s="60"/>
-      <c r="K384" s="60"/>
-      <c r="L384" s="60"/>
+      <c r="J384" s="29"/>
+      <c r="K384" s="29"/>
+      <c r="L384" s="29"/>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="15"/>
@@ -6612,9 +6612,9 @@
       <c r="G385" s="27"/>
       <c r="H385" s="27"/>
       <c r="I385" s="27"/>
-      <c r="J385" s="60"/>
-      <c r="K385" s="60"/>
-      <c r="L385" s="60"/>
+      <c r="J385" s="29"/>
+      <c r="K385" s="29"/>
+      <c r="L385" s="29"/>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="15"/>
@@ -6626,9 +6626,9 @@
       <c r="G386" s="27"/>
       <c r="H386" s="27"/>
       <c r="I386" s="27"/>
-      <c r="J386" s="60"/>
-      <c r="K386" s="60"/>
-      <c r="L386" s="60"/>
+      <c r="J386" s="29"/>
+      <c r="K386" s="29"/>
+      <c r="L386" s="29"/>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="15"/>
@@ -6640,9 +6640,9 @@
       <c r="G387" s="27"/>
       <c r="H387" s="27"/>
       <c r="I387" s="27"/>
-      <c r="J387" s="60"/>
-      <c r="K387" s="60"/>
-      <c r="L387" s="60"/>
+      <c r="J387" s="29"/>
+      <c r="K387" s="29"/>
+      <c r="L387" s="29"/>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="15"/>
@@ -6654,9 +6654,9 @@
       <c r="G388" s="27"/>
       <c r="H388" s="27"/>
       <c r="I388" s="27"/>
-      <c r="J388" s="60"/>
-      <c r="K388" s="60"/>
-      <c r="L388" s="60"/>
+      <c r="J388" s="29"/>
+      <c r="K388" s="29"/>
+      <c r="L388" s="29"/>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="15"/>
@@ -6668,9 +6668,9 @@
       <c r="G389" s="27"/>
       <c r="H389" s="27"/>
       <c r="I389" s="27"/>
-      <c r="J389" s="60"/>
-      <c r="K389" s="60"/>
-      <c r="L389" s="60"/>
+      <c r="J389" s="29"/>
+      <c r="K389" s="29"/>
+      <c r="L389" s="29"/>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="15"/>
@@ -6682,9 +6682,9 @@
       <c r="G390" s="27"/>
       <c r="H390" s="27"/>
       <c r="I390" s="27"/>
-      <c r="J390" s="60"/>
-      <c r="K390" s="60"/>
-      <c r="L390" s="60"/>
+      <c r="J390" s="29"/>
+      <c r="K390" s="29"/>
+      <c r="L390" s="29"/>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="15"/>
@@ -6696,9 +6696,9 @@
       <c r="G391" s="27"/>
       <c r="H391" s="27"/>
       <c r="I391" s="27"/>
-      <c r="J391" s="60"/>
-      <c r="K391" s="60"/>
-      <c r="L391" s="60"/>
+      <c r="J391" s="29"/>
+      <c r="K391" s="29"/>
+      <c r="L391" s="29"/>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="15"/>
@@ -6710,9 +6710,9 @@
       <c r="G392" s="27"/>
       <c r="H392" s="27"/>
       <c r="I392" s="27"/>
-      <c r="J392" s="60"/>
-      <c r="K392" s="60"/>
-      <c r="L392" s="60"/>
+      <c r="J392" s="29"/>
+      <c r="K392" s="29"/>
+      <c r="L392" s="29"/>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="15"/>
@@ -6724,9 +6724,9 @@
       <c r="G393" s="27"/>
       <c r="H393" s="27"/>
       <c r="I393" s="27"/>
-      <c r="J393" s="60"/>
-      <c r="K393" s="60"/>
-      <c r="L393" s="60"/>
+      <c r="J393" s="29"/>
+      <c r="K393" s="29"/>
+      <c r="L393" s="29"/>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="15"/>
@@ -6738,9 +6738,9 @@
       <c r="G394" s="27"/>
       <c r="H394" s="27"/>
       <c r="I394" s="27"/>
-      <c r="J394" s="60"/>
-      <c r="K394" s="60"/>
-      <c r="L394" s="60"/>
+      <c r="J394" s="29"/>
+      <c r="K394" s="29"/>
+      <c r="L394" s="29"/>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="15"/>
@@ -6752,9 +6752,9 @@
       <c r="G395" s="27"/>
       <c r="H395" s="27"/>
       <c r="I395" s="27"/>
-      <c r="J395" s="60"/>
-      <c r="K395" s="60"/>
-      <c r="L395" s="60"/>
+      <c r="J395" s="29"/>
+      <c r="K395" s="29"/>
+      <c r="L395" s="29"/>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="15"/>
@@ -6766,9 +6766,9 @@
       <c r="G396" s="27"/>
       <c r="H396" s="27"/>
       <c r="I396" s="27"/>
-      <c r="J396" s="60"/>
-      <c r="K396" s="60"/>
-      <c r="L396" s="60"/>
+      <c r="J396" s="29"/>
+      <c r="K396" s="29"/>
+      <c r="L396" s="29"/>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="15"/>
@@ -6780,9 +6780,9 @@
       <c r="G397" s="27"/>
       <c r="H397" s="27"/>
       <c r="I397" s="27"/>
-      <c r="J397" s="60"/>
-      <c r="K397" s="60"/>
-      <c r="L397" s="60"/>
+      <c r="J397" s="29"/>
+      <c r="K397" s="29"/>
+      <c r="L397" s="29"/>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="15"/>
@@ -6794,9 +6794,9 @@
       <c r="G398" s="27"/>
       <c r="H398" s="27"/>
       <c r="I398" s="27"/>
-      <c r="J398" s="60"/>
-      <c r="K398" s="60"/>
-      <c r="L398" s="60"/>
+      <c r="J398" s="29"/>
+      <c r="K398" s="29"/>
+      <c r="L398" s="29"/>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="15"/>
@@ -6808,9 +6808,9 @@
       <c r="G399" s="27"/>
       <c r="H399" s="27"/>
       <c r="I399" s="27"/>
-      <c r="J399" s="60"/>
-      <c r="K399" s="60"/>
-      <c r="L399" s="60"/>
+      <c r="J399" s="29"/>
+      <c r="K399" s="29"/>
+      <c r="L399" s="29"/>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="15"/>
@@ -6822,9 +6822,9 @@
       <c r="G400" s="26"/>
       <c r="H400" s="26"/>
       <c r="I400" s="26"/>
-      <c r="J400" s="60"/>
-      <c r="K400" s="60"/>
-      <c r="L400" s="60"/>
+      <c r="J400" s="29"/>
+      <c r="K400" s="29"/>
+      <c r="L400" s="29"/>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="15"/>
@@ -6836,9 +6836,9 @@
       <c r="G401" s="26"/>
       <c r="H401" s="26"/>
       <c r="I401" s="26"/>
-      <c r="J401" s="60"/>
-      <c r="K401" s="60"/>
-      <c r="L401" s="60"/>
+      <c r="J401" s="29"/>
+      <c r="K401" s="29"/>
+      <c r="L401" s="29"/>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="15"/>
@@ -6850,9 +6850,9 @@
       <c r="G402" s="27"/>
       <c r="H402" s="27"/>
       <c r="I402" s="27"/>
-      <c r="J402" s="60"/>
-      <c r="K402" s="60"/>
-      <c r="L402" s="60"/>
+      <c r="J402" s="29"/>
+      <c r="K402" s="29"/>
+      <c r="L402" s="29"/>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="15"/>
@@ -6864,9 +6864,9 @@
       <c r="G403" s="27"/>
       <c r="H403" s="27"/>
       <c r="I403" s="27"/>
-      <c r="J403" s="60"/>
-      <c r="K403" s="60"/>
-      <c r="L403" s="60"/>
+      <c r="J403" s="29"/>
+      <c r="K403" s="29"/>
+      <c r="L403" s="29"/>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="15"/>
@@ -6878,9 +6878,9 @@
       <c r="G404" s="27"/>
       <c r="H404" s="27"/>
       <c r="I404" s="27"/>
-      <c r="J404" s="60"/>
-      <c r="K404" s="60"/>
-      <c r="L404" s="60"/>
+      <c r="J404" s="29"/>
+      <c r="K404" s="29"/>
+      <c r="L404" s="29"/>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="15"/>
@@ -6892,9 +6892,9 @@
       <c r="G405" s="27"/>
       <c r="H405" s="27"/>
       <c r="I405" s="27"/>
-      <c r="J405" s="60"/>
-      <c r="K405" s="60"/>
-      <c r="L405" s="60"/>
+      <c r="J405" s="29"/>
+      <c r="K405" s="29"/>
+      <c r="L405" s="29"/>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="15"/>
@@ -6906,9 +6906,9 @@
       <c r="G406" s="27"/>
       <c r="H406" s="27"/>
       <c r="I406" s="27"/>
-      <c r="J406" s="60"/>
-      <c r="K406" s="60"/>
-      <c r="L406" s="60"/>
+      <c r="J406" s="29"/>
+      <c r="K406" s="29"/>
+      <c r="L406" s="29"/>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="15"/>
@@ -6920,9 +6920,9 @@
       <c r="G407" s="27"/>
       <c r="H407" s="27"/>
       <c r="I407" s="27"/>
-      <c r="J407" s="60"/>
-      <c r="K407" s="60"/>
-      <c r="L407" s="60"/>
+      <c r="J407" s="29"/>
+      <c r="K407" s="29"/>
+      <c r="L407" s="29"/>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="15"/>
@@ -6934,9 +6934,9 @@
       <c r="G408" s="27"/>
       <c r="H408" s="27"/>
       <c r="I408" s="27"/>
-      <c r="J408" s="60"/>
-      <c r="K408" s="60"/>
-      <c r="L408" s="60"/>
+      <c r="J408" s="29"/>
+      <c r="K408" s="29"/>
+      <c r="L408" s="29"/>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="15"/>
@@ -6948,9 +6948,9 @@
       <c r="G409" s="27"/>
       <c r="H409" s="27"/>
       <c r="I409" s="27"/>
-      <c r="J409" s="60"/>
-      <c r="K409" s="60"/>
-      <c r="L409" s="60"/>
+      <c r="J409" s="29"/>
+      <c r="K409" s="29"/>
+      <c r="L409" s="29"/>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="15"/>
@@ -6962,9 +6962,9 @@
       <c r="G410" s="27"/>
       <c r="H410" s="27"/>
       <c r="I410" s="27"/>
-      <c r="J410" s="60"/>
-      <c r="K410" s="60"/>
-      <c r="L410" s="60"/>
+      <c r="J410" s="29"/>
+      <c r="K410" s="29"/>
+      <c r="L410" s="29"/>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="15"/>
@@ -6976,9 +6976,9 @@
       <c r="G411" s="27"/>
       <c r="H411" s="27"/>
       <c r="I411" s="27"/>
-      <c r="J411" s="60"/>
-      <c r="K411" s="60"/>
-      <c r="L411" s="60"/>
+      <c r="J411" s="29"/>
+      <c r="K411" s="29"/>
+      <c r="L411" s="29"/>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="15"/>
@@ -6990,9 +6990,9 @@
       <c r="G412" s="27"/>
       <c r="H412" s="27"/>
       <c r="I412" s="27"/>
-      <c r="J412" s="60"/>
-      <c r="K412" s="60"/>
-      <c r="L412" s="60"/>
+      <c r="J412" s="29"/>
+      <c r="K412" s="29"/>
+      <c r="L412" s="29"/>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="15"/>
@@ -7004,9 +7004,9 @@
       <c r="G413" s="27"/>
       <c r="H413" s="27"/>
       <c r="I413" s="27"/>
-      <c r="J413" s="60"/>
-      <c r="K413" s="60"/>
-      <c r="L413" s="60"/>
+      <c r="J413" s="29"/>
+      <c r="K413" s="29"/>
+      <c r="L413" s="29"/>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="15"/>
@@ -7018,9 +7018,9 @@
       <c r="G414" s="27"/>
       <c r="H414" s="27"/>
       <c r="I414" s="27"/>
-      <c r="J414" s="60"/>
-      <c r="K414" s="60"/>
-      <c r="L414" s="60"/>
+      <c r="J414" s="29"/>
+      <c r="K414" s="29"/>
+      <c r="L414" s="29"/>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="15"/>
@@ -7032,9 +7032,9 @@
       <c r="G415" s="27"/>
       <c r="H415" s="27"/>
       <c r="I415" s="27"/>
-      <c r="J415" s="60"/>
-      <c r="K415" s="60"/>
-      <c r="L415" s="60"/>
+      <c r="J415" s="29"/>
+      <c r="K415" s="29"/>
+      <c r="L415" s="29"/>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="15"/>
@@ -7046,9 +7046,9 @@
       <c r="G416" s="27"/>
       <c r="H416" s="27"/>
       <c r="I416" s="27"/>
-      <c r="J416" s="60"/>
-      <c r="K416" s="60"/>
-      <c r="L416" s="60"/>
+      <c r="J416" s="29"/>
+      <c r="K416" s="29"/>
+      <c r="L416" s="29"/>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="15"/>
@@ -7060,9 +7060,9 @@
       <c r="G417" s="27"/>
       <c r="H417" s="27"/>
       <c r="I417" s="27"/>
-      <c r="J417" s="60"/>
-      <c r="K417" s="60"/>
-      <c r="L417" s="60"/>
+      <c r="J417" s="29"/>
+      <c r="K417" s="29"/>
+      <c r="L417" s="29"/>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="15"/>
@@ -7074,9 +7074,9 @@
       <c r="G418" s="27"/>
       <c r="H418" s="27"/>
       <c r="I418" s="27"/>
-      <c r="J418" s="60"/>
-      <c r="K418" s="60"/>
-      <c r="L418" s="60"/>
+      <c r="J418" s="29"/>
+      <c r="K418" s="29"/>
+      <c r="L418" s="29"/>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="15"/>
@@ -7088,9 +7088,9 @@
       <c r="G419" s="27"/>
       <c r="H419" s="27"/>
       <c r="I419" s="27"/>
-      <c r="J419" s="60"/>
-      <c r="K419" s="60"/>
-      <c r="L419" s="60"/>
+      <c r="J419" s="29"/>
+      <c r="K419" s="29"/>
+      <c r="L419" s="29"/>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="15"/>
@@ -7102,9 +7102,9 @@
       <c r="G420" s="27"/>
       <c r="H420" s="27"/>
       <c r="I420" s="27"/>
-      <c r="J420" s="60"/>
-      <c r="K420" s="60"/>
-      <c r="L420" s="60"/>
+      <c r="J420" s="29"/>
+      <c r="K420" s="29"/>
+      <c r="L420" s="29"/>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="15"/>
@@ -7116,9 +7116,9 @@
       <c r="G421" s="27"/>
       <c r="H421" s="27"/>
       <c r="I421" s="27"/>
-      <c r="J421" s="60"/>
-      <c r="K421" s="60"/>
-      <c r="L421" s="60"/>
+      <c r="J421" s="29"/>
+      <c r="K421" s="29"/>
+      <c r="L421" s="29"/>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="15"/>
@@ -7130,9 +7130,9 @@
       <c r="G422" s="26"/>
       <c r="H422" s="26"/>
       <c r="I422" s="26"/>
-      <c r="J422" s="60"/>
-      <c r="K422" s="60"/>
-      <c r="L422" s="60"/>
+      <c r="J422" s="29"/>
+      <c r="K422" s="29"/>
+      <c r="L422" s="29"/>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="15"/>
@@ -7144,9 +7144,9 @@
       <c r="G423" s="26"/>
       <c r="H423" s="26"/>
       <c r="I423" s="26"/>
-      <c r="J423" s="60"/>
-      <c r="K423" s="60"/>
-      <c r="L423" s="60"/>
+      <c r="J423" s="29"/>
+      <c r="K423" s="29"/>
+      <c r="L423" s="29"/>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="15"/>
@@ -7158,9 +7158,9 @@
       <c r="G424" s="27"/>
       <c r="H424" s="27"/>
       <c r="I424" s="27"/>
-      <c r="J424" s="60"/>
-      <c r="K424" s="60"/>
-      <c r="L424" s="60"/>
+      <c r="J424" s="29"/>
+      <c r="K424" s="29"/>
+      <c r="L424" s="29"/>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="15"/>
@@ -7172,9 +7172,9 @@
       <c r="G425" s="27"/>
       <c r="H425" s="27"/>
       <c r="I425" s="27"/>
-      <c r="J425" s="60"/>
-      <c r="K425" s="60"/>
-      <c r="L425" s="60"/>
+      <c r="J425" s="29"/>
+      <c r="K425" s="29"/>
+      <c r="L425" s="29"/>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="15"/>
@@ -7186,9 +7186,9 @@
       <c r="G426" s="27"/>
       <c r="H426" s="27"/>
       <c r="I426" s="27"/>
-      <c r="J426" s="60"/>
-      <c r="K426" s="60"/>
-      <c r="L426" s="60"/>
+      <c r="J426" s="29"/>
+      <c r="K426" s="29"/>
+      <c r="L426" s="29"/>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="15"/>
@@ -7200,9 +7200,9 @@
       <c r="G427" s="27"/>
       <c r="H427" s="27"/>
       <c r="I427" s="27"/>
-      <c r="J427" s="60"/>
-      <c r="K427" s="60"/>
-      <c r="L427" s="60"/>
+      <c r="J427" s="29"/>
+      <c r="K427" s="29"/>
+      <c r="L427" s="29"/>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="15"/>
@@ -7214,9 +7214,9 @@
       <c r="G428" s="27"/>
       <c r="H428" s="27"/>
       <c r="I428" s="27"/>
-      <c r="J428" s="60"/>
-      <c r="K428" s="60"/>
-      <c r="L428" s="60"/>
+      <c r="J428" s="29"/>
+      <c r="K428" s="29"/>
+      <c r="L428" s="29"/>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="15"/>
@@ -7228,9 +7228,9 @@
       <c r="G429" s="27"/>
       <c r="H429" s="27"/>
       <c r="I429" s="27"/>
-      <c r="J429" s="60"/>
-      <c r="K429" s="60"/>
-      <c r="L429" s="60"/>
+      <c r="J429" s="29"/>
+      <c r="K429" s="29"/>
+      <c r="L429" s="29"/>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="15"/>
@@ -7242,9 +7242,9 @@
       <c r="G430" s="27"/>
       <c r="H430" s="27"/>
       <c r="I430" s="27"/>
-      <c r="J430" s="60"/>
-      <c r="K430" s="60"/>
-      <c r="L430" s="60"/>
+      <c r="J430" s="29"/>
+      <c r="K430" s="29"/>
+      <c r="L430" s="29"/>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="15"/>
@@ -7256,9 +7256,9 @@
       <c r="G431" s="27"/>
       <c r="H431" s="27"/>
       <c r="I431" s="27"/>
-      <c r="J431" s="60"/>
-      <c r="K431" s="60"/>
-      <c r="L431" s="60"/>
+      <c r="J431" s="29"/>
+      <c r="K431" s="29"/>
+      <c r="L431" s="29"/>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="15"/>
@@ -7270,9 +7270,9 @@
       <c r="G432" s="27"/>
       <c r="H432" s="27"/>
       <c r="I432" s="27"/>
-      <c r="J432" s="60"/>
-      <c r="K432" s="60"/>
-      <c r="L432" s="60"/>
+      <c r="J432" s="29"/>
+      <c r="K432" s="29"/>
+      <c r="L432" s="29"/>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="15"/>
@@ -7284,9 +7284,9 @@
       <c r="G433" s="27"/>
       <c r="H433" s="27"/>
       <c r="I433" s="27"/>
-      <c r="J433" s="60"/>
-      <c r="K433" s="60"/>
-      <c r="L433" s="60"/>
+      <c r="J433" s="29"/>
+      <c r="K433" s="29"/>
+      <c r="L433" s="29"/>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="15"/>
@@ -7298,9 +7298,9 @@
       <c r="G434" s="27"/>
       <c r="H434" s="27"/>
       <c r="I434" s="27"/>
-      <c r="J434" s="60"/>
-      <c r="K434" s="60"/>
-      <c r="L434" s="60"/>
+      <c r="J434" s="29"/>
+      <c r="K434" s="29"/>
+      <c r="L434" s="29"/>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="15"/>
@@ -7312,9 +7312,9 @@
       <c r="G435" s="27"/>
       <c r="H435" s="27"/>
       <c r="I435" s="27"/>
-      <c r="J435" s="60"/>
-      <c r="K435" s="60"/>
-      <c r="L435" s="60"/>
+      <c r="J435" s="29"/>
+      <c r="K435" s="29"/>
+      <c r="L435" s="29"/>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="15"/>
@@ -7326,9 +7326,9 @@
       <c r="G436" s="27"/>
       <c r="H436" s="27"/>
       <c r="I436" s="27"/>
-      <c r="J436" s="60"/>
-      <c r="K436" s="60"/>
-      <c r="L436" s="60"/>
+      <c r="J436" s="29"/>
+      <c r="K436" s="29"/>
+      <c r="L436" s="29"/>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="15"/>
@@ -7340,9 +7340,9 @@
       <c r="G437" s="27"/>
       <c r="H437" s="27"/>
       <c r="I437" s="27"/>
-      <c r="J437" s="60"/>
-      <c r="K437" s="60"/>
-      <c r="L437" s="60"/>
+      <c r="J437" s="29"/>
+      <c r="K437" s="29"/>
+      <c r="L437" s="29"/>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="15"/>
@@ -7354,9 +7354,9 @@
       <c r="G438" s="27"/>
       <c r="H438" s="27"/>
       <c r="I438" s="27"/>
-      <c r="J438" s="60"/>
-      <c r="K438" s="60"/>
-      <c r="L438" s="60"/>
+      <c r="J438" s="29"/>
+      <c r="K438" s="29"/>
+      <c r="L438" s="29"/>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="15"/>
@@ -7368,9 +7368,9 @@
       <c r="G439" s="27"/>
       <c r="H439" s="27"/>
       <c r="I439" s="27"/>
-      <c r="J439" s="60"/>
-      <c r="K439" s="60"/>
-      <c r="L439" s="60"/>
+      <c r="J439" s="29"/>
+      <c r="K439" s="29"/>
+      <c r="L439" s="29"/>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="15"/>
@@ -7382,9 +7382,9 @@
       <c r="G440" s="27"/>
       <c r="H440" s="27"/>
       <c r="I440" s="27"/>
-      <c r="J440" s="60"/>
-      <c r="K440" s="60"/>
-      <c r="L440" s="60"/>
+      <c r="J440" s="29"/>
+      <c r="K440" s="29"/>
+      <c r="L440" s="29"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="15"/>
@@ -7396,9 +7396,9 @@
       <c r="G441" s="27"/>
       <c r="H441" s="27"/>
       <c r="I441" s="27"/>
-      <c r="J441" s="60"/>
-      <c r="K441" s="60"/>
-      <c r="L441" s="60"/>
+      <c r="J441" s="29"/>
+      <c r="K441" s="29"/>
+      <c r="L441" s="29"/>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="15"/>
@@ -7410,9 +7410,9 @@
       <c r="G442" s="27"/>
       <c r="H442" s="27"/>
       <c r="I442" s="27"/>
-      <c r="J442" s="60"/>
-      <c r="K442" s="60"/>
-      <c r="L442" s="60"/>
+      <c r="J442" s="29"/>
+      <c r="K442" s="29"/>
+      <c r="L442" s="29"/>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="15"/>
@@ -7424,9 +7424,9 @@
       <c r="G443" s="27"/>
       <c r="H443" s="27"/>
       <c r="I443" s="27"/>
-      <c r="J443" s="60"/>
-      <c r="K443" s="60"/>
-      <c r="L443" s="60"/>
+      <c r="J443" s="29"/>
+      <c r="K443" s="29"/>
+      <c r="L443" s="29"/>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="15"/>
@@ -7438,9 +7438,9 @@
       <c r="G444" s="26"/>
       <c r="H444" s="26"/>
       <c r="I444" s="26"/>
-      <c r="J444" s="60"/>
-      <c r="K444" s="60"/>
-      <c r="L444" s="60"/>
+      <c r="J444" s="29"/>
+      <c r="K444" s="29"/>
+      <c r="L444" s="29"/>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="15"/>
@@ -7452,9 +7452,9 @@
       <c r="G445" s="26"/>
       <c r="H445" s="26"/>
       <c r="I445" s="26"/>
-      <c r="J445" s="60"/>
-      <c r="K445" s="60"/>
-      <c r="L445" s="60"/>
+      <c r="J445" s="29"/>
+      <c r="K445" s="29"/>
+      <c r="L445" s="29"/>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="15"/>
@@ -7466,9 +7466,9 @@
       <c r="G446" s="27"/>
       <c r="H446" s="27"/>
       <c r="I446" s="27"/>
-      <c r="J446" s="60"/>
-      <c r="K446" s="60"/>
-      <c r="L446" s="60"/>
+      <c r="J446" s="29"/>
+      <c r="K446" s="29"/>
+      <c r="L446" s="29"/>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="15"/>
@@ -7480,9 +7480,9 @@
       <c r="G447" s="27"/>
       <c r="H447" s="27"/>
       <c r="I447" s="27"/>
-      <c r="J447" s="60"/>
-      <c r="K447" s="60"/>
-      <c r="L447" s="60"/>
+      <c r="J447" s="29"/>
+      <c r="K447" s="29"/>
+      <c r="L447" s="29"/>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="15"/>
@@ -7494,9 +7494,9 @@
       <c r="G448" s="27"/>
       <c r="H448" s="27"/>
       <c r="I448" s="27"/>
-      <c r="J448" s="60"/>
-      <c r="K448" s="60"/>
-      <c r="L448" s="60"/>
+      <c r="J448" s="29"/>
+      <c r="K448" s="29"/>
+      <c r="L448" s="29"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="15"/>
@@ -7508,9 +7508,9 @@
       <c r="G449" s="27"/>
       <c r="H449" s="27"/>
       <c r="I449" s="27"/>
-      <c r="J449" s="60"/>
-      <c r="K449" s="60"/>
-      <c r="L449" s="60"/>
+      <c r="J449" s="29"/>
+      <c r="K449" s="29"/>
+      <c r="L449" s="29"/>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="15"/>
@@ -7522,9 +7522,9 @@
       <c r="G450" s="27"/>
       <c r="H450" s="27"/>
       <c r="I450" s="27"/>
-      <c r="J450" s="60"/>
-      <c r="K450" s="60"/>
-      <c r="L450" s="60"/>
+      <c r="J450" s="29"/>
+      <c r="K450" s="29"/>
+      <c r="L450" s="29"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="15"/>
@@ -7536,9 +7536,9 @@
       <c r="G451" s="27"/>
       <c r="H451" s="27"/>
       <c r="I451" s="27"/>
-      <c r="J451" s="60"/>
-      <c r="K451" s="60"/>
-      <c r="L451" s="60"/>
+      <c r="J451" s="29"/>
+      <c r="K451" s="29"/>
+      <c r="L451" s="29"/>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="15"/>
@@ -7550,9 +7550,9 @@
       <c r="G452" s="27"/>
       <c r="H452" s="27"/>
       <c r="I452" s="27"/>
-      <c r="J452" s="60"/>
-      <c r="K452" s="60"/>
-      <c r="L452" s="60"/>
+      <c r="J452" s="29"/>
+      <c r="K452" s="29"/>
+      <c r="L452" s="29"/>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="15"/>
@@ -7564,9 +7564,9 @@
       <c r="G453" s="27"/>
       <c r="H453" s="27"/>
       <c r="I453" s="27"/>
-      <c r="J453" s="60"/>
-      <c r="K453" s="60"/>
-      <c r="L453" s="60"/>
+      <c r="J453" s="29"/>
+      <c r="K453" s="29"/>
+      <c r="L453" s="29"/>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="15"/>
@@ -7578,9 +7578,9 @@
       <c r="G454" s="27"/>
       <c r="H454" s="27"/>
       <c r="I454" s="27"/>
-      <c r="J454" s="60"/>
-      <c r="K454" s="60"/>
-      <c r="L454" s="60"/>
+      <c r="J454" s="29"/>
+      <c r="K454" s="29"/>
+      <c r="L454" s="29"/>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="15"/>
@@ -7592,9 +7592,9 @@
       <c r="G455" s="27"/>
       <c r="H455" s="27"/>
       <c r="I455" s="27"/>
-      <c r="J455" s="60"/>
-      <c r="K455" s="60"/>
-      <c r="L455" s="60"/>
+      <c r="J455" s="29"/>
+      <c r="K455" s="29"/>
+      <c r="L455" s="29"/>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="15"/>
@@ -7606,9 +7606,9 @@
       <c r="G456" s="27"/>
       <c r="H456" s="27"/>
       <c r="I456" s="27"/>
-      <c r="J456" s="60"/>
-      <c r="K456" s="60"/>
-      <c r="L456" s="60"/>
+      <c r="J456" s="29"/>
+      <c r="K456" s="29"/>
+      <c r="L456" s="29"/>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="15"/>
@@ -7620,9 +7620,9 @@
       <c r="G457" s="27"/>
       <c r="H457" s="27"/>
       <c r="I457" s="27"/>
-      <c r="J457" s="60"/>
-      <c r="K457" s="60"/>
-      <c r="L457" s="60"/>
+      <c r="J457" s="29"/>
+      <c r="K457" s="29"/>
+      <c r="L457" s="29"/>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="15"/>
@@ -7634,9 +7634,9 @@
       <c r="G458" s="27"/>
       <c r="H458" s="27"/>
       <c r="I458" s="27"/>
-      <c r="J458" s="60"/>
-      <c r="K458" s="60"/>
-      <c r="L458" s="60"/>
+      <c r="J458" s="29"/>
+      <c r="K458" s="29"/>
+      <c r="L458" s="29"/>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="15"/>
@@ -7648,9 +7648,9 @@
       <c r="G459" s="27"/>
       <c r="H459" s="27"/>
       <c r="I459" s="27"/>
-      <c r="J459" s="60"/>
-      <c r="K459" s="60"/>
-      <c r="L459" s="60"/>
+      <c r="J459" s="29"/>
+      <c r="K459" s="29"/>
+      <c r="L459" s="29"/>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="15"/>
@@ -7662,9 +7662,9 @@
       <c r="G460" s="27"/>
       <c r="H460" s="27"/>
       <c r="I460" s="27"/>
-      <c r="J460" s="60"/>
-      <c r="K460" s="60"/>
-      <c r="L460" s="60"/>
+      <c r="J460" s="29"/>
+      <c r="K460" s="29"/>
+      <c r="L460" s="29"/>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="15"/>
@@ -7676,9 +7676,9 @@
       <c r="G461" s="27"/>
       <c r="H461" s="27"/>
       <c r="I461" s="27"/>
-      <c r="J461" s="60"/>
-      <c r="K461" s="60"/>
-      <c r="L461" s="60"/>
+      <c r="J461" s="29"/>
+      <c r="K461" s="29"/>
+      <c r="L461" s="29"/>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="15"/>
@@ -7690,9 +7690,9 @@
       <c r="G462" s="27"/>
       <c r="H462" s="27"/>
       <c r="I462" s="27"/>
-      <c r="J462" s="60"/>
-      <c r="K462" s="60"/>
-      <c r="L462" s="60"/>
+      <c r="J462" s="29"/>
+      <c r="K462" s="29"/>
+      <c r="L462" s="29"/>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="15"/>
@@ -7704,9 +7704,9 @@
       <c r="G463" s="27"/>
       <c r="H463" s="27"/>
       <c r="I463" s="27"/>
-      <c r="J463" s="60"/>
-      <c r="K463" s="60"/>
-      <c r="L463" s="60"/>
+      <c r="J463" s="29"/>
+      <c r="K463" s="29"/>
+      <c r="L463" s="29"/>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="15"/>
@@ -7718,9 +7718,9 @@
       <c r="G464" s="27"/>
       <c r="H464" s="27"/>
       <c r="I464" s="27"/>
-      <c r="J464" s="60"/>
-      <c r="K464" s="60"/>
-      <c r="L464" s="60"/>
+      <c r="J464" s="29"/>
+      <c r="K464" s="29"/>
+      <c r="L464" s="29"/>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="15"/>
@@ -7732,9 +7732,9 @@
       <c r="G465" s="27"/>
       <c r="H465" s="27"/>
       <c r="I465" s="27"/>
-      <c r="J465" s="60"/>
-      <c r="K465" s="60"/>
-      <c r="L465" s="60"/>
+      <c r="J465" s="29"/>
+      <c r="K465" s="29"/>
+      <c r="L465" s="29"/>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="15"/>
@@ -7746,9 +7746,9 @@
       <c r="G466" s="26"/>
       <c r="H466" s="26"/>
       <c r="I466" s="26"/>
-      <c r="J466" s="60"/>
-      <c r="K466" s="60"/>
-      <c r="L466" s="60"/>
+      <c r="J466" s="29"/>
+      <c r="K466" s="29"/>
+      <c r="L466" s="29"/>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="15"/>
@@ -7760,9 +7760,9 @@
       <c r="G467" s="26"/>
       <c r="H467" s="26"/>
       <c r="I467" s="26"/>
-      <c r="J467" s="60"/>
-      <c r="K467" s="60"/>
-      <c r="L467" s="60"/>
+      <c r="J467" s="29"/>
+      <c r="K467" s="29"/>
+      <c r="L467" s="29"/>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="15"/>
@@ -7774,9 +7774,9 @@
       <c r="G468" s="27"/>
       <c r="H468" s="27"/>
       <c r="I468" s="27"/>
-      <c r="J468" s="60"/>
-      <c r="K468" s="60"/>
-      <c r="L468" s="60"/>
+      <c r="J468" s="29"/>
+      <c r="K468" s="29"/>
+      <c r="L468" s="29"/>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="15"/>
@@ -7788,9 +7788,9 @@
       <c r="G469" s="27"/>
       <c r="H469" s="27"/>
       <c r="I469" s="27"/>
-      <c r="J469" s="60"/>
-      <c r="K469" s="60"/>
-      <c r="L469" s="60"/>
+      <c r="J469" s="29"/>
+      <c r="K469" s="29"/>
+      <c r="L469" s="29"/>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="15"/>
@@ -7802,9 +7802,9 @@
       <c r="G470" s="27"/>
       <c r="H470" s="27"/>
       <c r="I470" s="27"/>
-      <c r="J470" s="60"/>
-      <c r="K470" s="60"/>
-      <c r="L470" s="60"/>
+      <c r="J470" s="29"/>
+      <c r="K470" s="29"/>
+      <c r="L470" s="29"/>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="15"/>
@@ -7816,9 +7816,9 @@
       <c r="G471" s="27"/>
       <c r="H471" s="27"/>
       <c r="I471" s="27"/>
-      <c r="J471" s="60"/>
-      <c r="K471" s="60"/>
-      <c r="L471" s="60"/>
+      <c r="J471" s="29"/>
+      <c r="K471" s="29"/>
+      <c r="L471" s="29"/>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="15"/>
@@ -7830,9 +7830,9 @@
       <c r="G472" s="27"/>
       <c r="H472" s="27"/>
       <c r="I472" s="27"/>
-      <c r="J472" s="60"/>
-      <c r="K472" s="60"/>
-      <c r="L472" s="60"/>
+      <c r="J472" s="29"/>
+      <c r="K472" s="29"/>
+      <c r="L472" s="29"/>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="15"/>
@@ -7844,9 +7844,9 @@
       <c r="G473" s="27"/>
       <c r="H473" s="27"/>
       <c r="I473" s="27"/>
-      <c r="J473" s="60"/>
-      <c r="K473" s="60"/>
-      <c r="L473" s="60"/>
+      <c r="J473" s="29"/>
+      <c r="K473" s="29"/>
+      <c r="L473" s="29"/>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="15"/>
@@ -7858,9 +7858,9 @@
       <c r="G474" s="27"/>
       <c r="H474" s="27"/>
       <c r="I474" s="27"/>
-      <c r="J474" s="60"/>
-      <c r="K474" s="60"/>
-      <c r="L474" s="60"/>
+      <c r="J474" s="29"/>
+      <c r="K474" s="29"/>
+      <c r="L474" s="29"/>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="15"/>
@@ -7872,9 +7872,9 @@
       <c r="G475" s="27"/>
       <c r="H475" s="27"/>
       <c r="I475" s="27"/>
-      <c r="J475" s="60"/>
-      <c r="K475" s="60"/>
-      <c r="L475" s="60"/>
+      <c r="J475" s="29"/>
+      <c r="K475" s="29"/>
+      <c r="L475" s="29"/>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="15"/>
@@ -7886,9 +7886,9 @@
       <c r="G476" s="27"/>
       <c r="H476" s="27"/>
       <c r="I476" s="27"/>
-      <c r="J476" s="60"/>
-      <c r="K476" s="60"/>
-      <c r="L476" s="60"/>
+      <c r="J476" s="29"/>
+      <c r="K476" s="29"/>
+      <c r="L476" s="29"/>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="15"/>
@@ -7900,9 +7900,9 @@
       <c r="G477" s="27"/>
       <c r="H477" s="27"/>
       <c r="I477" s="27"/>
-      <c r="J477" s="60"/>
-      <c r="K477" s="60"/>
-      <c r="L477" s="60"/>
+      <c r="J477" s="29"/>
+      <c r="K477" s="29"/>
+      <c r="L477" s="29"/>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="15"/>
@@ -7914,9 +7914,9 @@
       <c r="G478" s="27"/>
       <c r="H478" s="27"/>
       <c r="I478" s="27"/>
-      <c r="J478" s="60"/>
-      <c r="K478" s="60"/>
-      <c r="L478" s="60"/>
+      <c r="J478" s="29"/>
+      <c r="K478" s="29"/>
+      <c r="L478" s="29"/>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="15"/>
@@ -7928,9 +7928,9 @@
       <c r="G479" s="27"/>
       <c r="H479" s="27"/>
       <c r="I479" s="27"/>
-      <c r="J479" s="60"/>
-      <c r="K479" s="60"/>
-      <c r="L479" s="60"/>
+      <c r="J479" s="29"/>
+      <c r="K479" s="29"/>
+      <c r="L479" s="29"/>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="15"/>
@@ -7942,9 +7942,9 @@
       <c r="G480" s="27"/>
       <c r="H480" s="27"/>
       <c r="I480" s="27"/>
-      <c r="J480" s="60"/>
-      <c r="K480" s="60"/>
-      <c r="L480" s="60"/>
+      <c r="J480" s="29"/>
+      <c r="K480" s="29"/>
+      <c r="L480" s="29"/>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="15"/>
@@ -7956,9 +7956,9 @@
       <c r="G481" s="27"/>
       <c r="H481" s="27"/>
       <c r="I481" s="27"/>
-      <c r="J481" s="60"/>
-      <c r="K481" s="60"/>
-      <c r="L481" s="60"/>
+      <c r="J481" s="29"/>
+      <c r="K481" s="29"/>
+      <c r="L481" s="29"/>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="15"/>
@@ -7970,9 +7970,9 @@
       <c r="G482" s="27"/>
       <c r="H482" s="27"/>
       <c r="I482" s="27"/>
-      <c r="J482" s="60"/>
-      <c r="K482" s="60"/>
-      <c r="L482" s="60"/>
+      <c r="J482" s="29"/>
+      <c r="K482" s="29"/>
+      <c r="L482" s="29"/>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="15"/>
@@ -7984,9 +7984,9 @@
       <c r="G483" s="27"/>
       <c r="H483" s="27"/>
       <c r="I483" s="27"/>
-      <c r="J483" s="60"/>
-      <c r="K483" s="60"/>
-      <c r="L483" s="60"/>
+      <c r="J483" s="29"/>
+      <c r="K483" s="29"/>
+      <c r="L483" s="29"/>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="15"/>
@@ -7998,9 +7998,9 @@
       <c r="G484" s="27"/>
       <c r="H484" s="27"/>
       <c r="I484" s="27"/>
-      <c r="J484" s="60"/>
-      <c r="K484" s="60"/>
-      <c r="L484" s="60"/>
+      <c r="J484" s="29"/>
+      <c r="K484" s="29"/>
+      <c r="L484" s="29"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="15"/>
@@ -8012,9 +8012,9 @@
       <c r="G485" s="27"/>
       <c r="H485" s="27"/>
       <c r="I485" s="27"/>
-      <c r="J485" s="60"/>
-      <c r="K485" s="60"/>
-      <c r="L485" s="60"/>
+      <c r="J485" s="29"/>
+      <c r="K485" s="29"/>
+      <c r="L485" s="29"/>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="15"/>
@@ -8026,9 +8026,9 @@
       <c r="G486" s="27"/>
       <c r="H486" s="27"/>
       <c r="I486" s="27"/>
-      <c r="J486" s="60"/>
-      <c r="K486" s="60"/>
-      <c r="L486" s="60"/>
+      <c r="J486" s="29"/>
+      <c r="K486" s="29"/>
+      <c r="L486" s="29"/>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="15"/>
@@ -8040,9 +8040,9 @@
       <c r="G487" s="27"/>
       <c r="H487" s="27"/>
       <c r="I487" s="27"/>
-      <c r="J487" s="60"/>
-      <c r="K487" s="60"/>
-      <c r="L487" s="60"/>
+      <c r="J487" s="29"/>
+      <c r="K487" s="29"/>
+      <c r="L487" s="29"/>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="15"/>
@@ -8054,9 +8054,9 @@
       <c r="G488" s="26"/>
       <c r="H488" s="26"/>
       <c r="I488" s="26"/>
-      <c r="J488" s="60"/>
-      <c r="K488" s="60"/>
-      <c r="L488" s="60"/>
+      <c r="J488" s="29"/>
+      <c r="K488" s="29"/>
+      <c r="L488" s="29"/>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="15"/>
@@ -8068,9 +8068,9 @@
       <c r="G489" s="26"/>
       <c r="H489" s="26"/>
       <c r="I489" s="26"/>
-      <c r="J489" s="60"/>
-      <c r="K489" s="60"/>
-      <c r="L489" s="60"/>
+      <c r="J489" s="29"/>
+      <c r="K489" s="29"/>
+      <c r="L489" s="29"/>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="15"/>
@@ -8082,9 +8082,9 @@
       <c r="G490" s="27"/>
       <c r="H490" s="27"/>
       <c r="I490" s="27"/>
-      <c r="J490" s="60"/>
-      <c r="K490" s="60"/>
-      <c r="L490" s="60"/>
+      <c r="J490" s="29"/>
+      <c r="K490" s="29"/>
+      <c r="L490" s="29"/>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="15"/>
@@ -8096,9 +8096,9 @@
       <c r="G491" s="27"/>
       <c r="H491" s="27"/>
       <c r="I491" s="27"/>
-      <c r="J491" s="60"/>
-      <c r="K491" s="60"/>
-      <c r="L491" s="60"/>
+      <c r="J491" s="29"/>
+      <c r="K491" s="29"/>
+      <c r="L491" s="29"/>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="15"/>
@@ -8110,9 +8110,9 @@
       <c r="G492" s="27"/>
       <c r="H492" s="27"/>
       <c r="I492" s="27"/>
-      <c r="J492" s="60"/>
-      <c r="K492" s="60"/>
-      <c r="L492" s="60"/>
+      <c r="J492" s="29"/>
+      <c r="K492" s="29"/>
+      <c r="L492" s="29"/>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="15"/>
@@ -8124,9 +8124,9 @@
       <c r="G493" s="27"/>
       <c r="H493" s="27"/>
       <c r="I493" s="27"/>
-      <c r="J493" s="60"/>
-      <c r="K493" s="60"/>
-      <c r="L493" s="60"/>
+      <c r="J493" s="29"/>
+      <c r="K493" s="29"/>
+      <c r="L493" s="29"/>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="15"/>
@@ -8138,9 +8138,9 @@
       <c r="G494" s="27"/>
       <c r="H494" s="27"/>
       <c r="I494" s="27"/>
-      <c r="J494" s="60"/>
-      <c r="K494" s="60"/>
-      <c r="L494" s="60"/>
+      <c r="J494" s="29"/>
+      <c r="K494" s="29"/>
+      <c r="L494" s="29"/>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="15"/>
@@ -8152,9 +8152,9 @@
       <c r="G495" s="27"/>
       <c r="H495" s="27"/>
       <c r="I495" s="27"/>
-      <c r="J495" s="60"/>
-      <c r="K495" s="60"/>
-      <c r="L495" s="60"/>
+      <c r="J495" s="29"/>
+      <c r="K495" s="29"/>
+      <c r="L495" s="29"/>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="15"/>
@@ -8166,9 +8166,9 @@
       <c r="G496" s="27"/>
       <c r="H496" s="27"/>
       <c r="I496" s="27"/>
-      <c r="J496" s="60"/>
-      <c r="K496" s="60"/>
-      <c r="L496" s="60"/>
+      <c r="J496" s="29"/>
+      <c r="K496" s="29"/>
+      <c r="L496" s="29"/>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="15"/>
@@ -8180,9 +8180,9 @@
       <c r="G497" s="27"/>
       <c r="H497" s="27"/>
       <c r="I497" s="27"/>
-      <c r="J497" s="60"/>
-      <c r="K497" s="60"/>
-      <c r="L497" s="60"/>
+      <c r="J497" s="29"/>
+      <c r="K497" s="29"/>
+      <c r="L497" s="29"/>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="15"/>
@@ -8194,9 +8194,9 @@
       <c r="G498" s="27"/>
       <c r="H498" s="27"/>
       <c r="I498" s="27"/>
-      <c r="J498" s="60"/>
-      <c r="K498" s="60"/>
-      <c r="L498" s="60"/>
+      <c r="J498" s="29"/>
+      <c r="K498" s="29"/>
+      <c r="L498" s="29"/>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="15"/>
@@ -8208,9 +8208,9 @@
       <c r="G499" s="27"/>
       <c r="H499" s="27"/>
       <c r="I499" s="27"/>
-      <c r="J499" s="60"/>
-      <c r="K499" s="60"/>
-      <c r="L499" s="60"/>
+      <c r="J499" s="29"/>
+      <c r="K499" s="29"/>
+      <c r="L499" s="29"/>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="15"/>
@@ -8222,9 +8222,9 @@
       <c r="G500" s="27"/>
       <c r="H500" s="27"/>
       <c r="I500" s="27"/>
-      <c r="J500" s="60"/>
-      <c r="K500" s="60"/>
-      <c r="L500" s="60"/>
+      <c r="J500" s="29"/>
+      <c r="K500" s="29"/>
+      <c r="L500" s="29"/>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="15"/>
@@ -8236,9 +8236,9 @@
       <c r="G501" s="27"/>
       <c r="H501" s="27"/>
       <c r="I501" s="27"/>
-      <c r="J501" s="60"/>
-      <c r="K501" s="60"/>
-      <c r="L501" s="60"/>
+      <c r="J501" s="29"/>
+      <c r="K501" s="29"/>
+      <c r="L501" s="29"/>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="15"/>
@@ -8250,9 +8250,9 @@
       <c r="G502" s="27"/>
       <c r="H502" s="27"/>
       <c r="I502" s="27"/>
-      <c r="J502" s="60"/>
-      <c r="K502" s="60"/>
-      <c r="L502" s="60"/>
+      <c r="J502" s="29"/>
+      <c r="K502" s="29"/>
+      <c r="L502" s="29"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="15"/>
@@ -8264,9 +8264,9 @@
       <c r="G503" s="27"/>
       <c r="H503" s="27"/>
       <c r="I503" s="27"/>
-      <c r="J503" s="60"/>
-      <c r="K503" s="60"/>
-      <c r="L503" s="60"/>
+      <c r="J503" s="29"/>
+      <c r="K503" s="29"/>
+      <c r="L503" s="29"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="15"/>
@@ -8278,9 +8278,9 @@
       <c r="G504" s="27"/>
       <c r="H504" s="27"/>
       <c r="I504" s="27"/>
-      <c r="J504" s="60"/>
-      <c r="K504" s="60"/>
-      <c r="L504" s="60"/>
+      <c r="J504" s="29"/>
+      <c r="K504" s="29"/>
+      <c r="L504" s="29"/>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="15"/>
@@ -8292,9 +8292,9 @@
       <c r="G505" s="27"/>
       <c r="H505" s="27"/>
       <c r="I505" s="27"/>
-      <c r="J505" s="60"/>
-      <c r="K505" s="60"/>
-      <c r="L505" s="60"/>
+      <c r="J505" s="29"/>
+      <c r="K505" s="29"/>
+      <c r="L505" s="29"/>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="15"/>
@@ -8306,9 +8306,9 @@
       <c r="G506" s="27"/>
       <c r="H506" s="27"/>
       <c r="I506" s="27"/>
-      <c r="J506" s="60"/>
-      <c r="K506" s="60"/>
-      <c r="L506" s="60"/>
+      <c r="J506" s="29"/>
+      <c r="K506" s="29"/>
+      <c r="L506" s="29"/>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="15"/>
@@ -8320,9 +8320,9 @@
       <c r="G507" s="27"/>
       <c r="H507" s="27"/>
       <c r="I507" s="27"/>
-      <c r="J507" s="60"/>
-      <c r="K507" s="60"/>
-      <c r="L507" s="60"/>
+      <c r="J507" s="29"/>
+      <c r="K507" s="29"/>
+      <c r="L507" s="29"/>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="15"/>
@@ -8334,9 +8334,9 @@
       <c r="G508" s="27"/>
       <c r="H508" s="27"/>
       <c r="I508" s="27"/>
-      <c r="J508" s="60"/>
-      <c r="K508" s="60"/>
-      <c r="L508" s="60"/>
+      <c r="J508" s="29"/>
+      <c r="K508" s="29"/>
+      <c r="L508" s="29"/>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="15"/>
@@ -8348,9 +8348,9 @@
       <c r="G509" s="27"/>
       <c r="H509" s="27"/>
       <c r="I509" s="27"/>
-      <c r="J509" s="60"/>
-      <c r="K509" s="60"/>
-      <c r="L509" s="60"/>
+      <c r="J509" s="29"/>
+      <c r="K509" s="29"/>
+      <c r="L509" s="29"/>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="15"/>
@@ -8362,9 +8362,9 @@
       <c r="G510" s="26"/>
       <c r="H510" s="26"/>
       <c r="I510" s="26"/>
-      <c r="J510" s="60"/>
-      <c r="K510" s="60"/>
-      <c r="L510" s="60"/>
+      <c r="J510" s="29"/>
+      <c r="K510" s="29"/>
+      <c r="L510" s="29"/>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="15"/>
@@ -8376,9 +8376,9 @@
       <c r="G511" s="26"/>
       <c r="H511" s="26"/>
       <c r="I511" s="26"/>
-      <c r="J511" s="60"/>
-      <c r="K511" s="60"/>
-      <c r="L511" s="60"/>
+      <c r="J511" s="29"/>
+      <c r="K511" s="29"/>
+      <c r="L511" s="29"/>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="15"/>
@@ -8390,9 +8390,9 @@
       <c r="G512" s="27"/>
       <c r="H512" s="27"/>
       <c r="I512" s="27"/>
-      <c r="J512" s="60"/>
-      <c r="K512" s="60"/>
-      <c r="L512" s="60"/>
+      <c r="J512" s="29"/>
+      <c r="K512" s="29"/>
+      <c r="L512" s="29"/>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="15"/>
@@ -8404,9 +8404,9 @@
       <c r="G513" s="27"/>
       <c r="H513" s="27"/>
       <c r="I513" s="27"/>
-      <c r="J513" s="60"/>
-      <c r="K513" s="60"/>
-      <c r="L513" s="60"/>
+      <c r="J513" s="29"/>
+      <c r="K513" s="29"/>
+      <c r="L513" s="29"/>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="15"/>
@@ -8418,9 +8418,9 @@
       <c r="G514" s="27"/>
       <c r="H514" s="27"/>
       <c r="I514" s="27"/>
-      <c r="J514" s="60"/>
-      <c r="K514" s="60"/>
-      <c r="L514" s="60"/>
+      <c r="J514" s="29"/>
+      <c r="K514" s="29"/>
+      <c r="L514" s="29"/>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="15"/>
@@ -8432,9 +8432,9 @@
       <c r="G515" s="27"/>
       <c r="H515" s="27"/>
       <c r="I515" s="27"/>
-      <c r="J515" s="60"/>
-      <c r="K515" s="60"/>
-      <c r="L515" s="60"/>
+      <c r="J515" s="29"/>
+      <c r="K515" s="29"/>
+      <c r="L515" s="29"/>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="15"/>
@@ -8446,9 +8446,9 @@
       <c r="G516" s="27"/>
       <c r="H516" s="27"/>
       <c r="I516" s="27"/>
-      <c r="J516" s="60"/>
-      <c r="K516" s="60"/>
-      <c r="L516" s="60"/>
+      <c r="J516" s="29"/>
+      <c r="K516" s="29"/>
+      <c r="L516" s="29"/>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="15"/>
@@ -8460,9 +8460,9 @@
       <c r="G517" s="27"/>
       <c r="H517" s="27"/>
       <c r="I517" s="27"/>
-      <c r="J517" s="60"/>
-      <c r="K517" s="60"/>
-      <c r="L517" s="60"/>
+      <c r="J517" s="29"/>
+      <c r="K517" s="29"/>
+      <c r="L517" s="29"/>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="15"/>
@@ -8474,9 +8474,9 @@
       <c r="G518" s="27"/>
       <c r="H518" s="27"/>
       <c r="I518" s="27"/>
-      <c r="J518" s="60"/>
-      <c r="K518" s="60"/>
-      <c r="L518" s="60"/>
+      <c r="J518" s="29"/>
+      <c r="K518" s="29"/>
+      <c r="L518" s="29"/>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="15"/>
@@ -8488,9 +8488,9 @@
       <c r="G519" s="27"/>
       <c r="H519" s="27"/>
       <c r="I519" s="27"/>
-      <c r="J519" s="60"/>
-      <c r="K519" s="60"/>
-      <c r="L519" s="60"/>
+      <c r="J519" s="29"/>
+      <c r="K519" s="29"/>
+      <c r="L519" s="29"/>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="15"/>
@@ -8502,9 +8502,9 @@
       <c r="G520" s="27"/>
       <c r="H520" s="27"/>
       <c r="I520" s="27"/>
-      <c r="J520" s="60"/>
-      <c r="K520" s="60"/>
-      <c r="L520" s="60"/>
+      <c r="J520" s="29"/>
+      <c r="K520" s="29"/>
+      <c r="L520" s="29"/>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="15"/>
@@ -8516,9 +8516,9 @@
       <c r="G521" s="27"/>
       <c r="H521" s="27"/>
       <c r="I521" s="27"/>
-      <c r="J521" s="60"/>
-      <c r="K521" s="60"/>
-      <c r="L521" s="60"/>
+      <c r="J521" s="29"/>
+      <c r="K521" s="29"/>
+      <c r="L521" s="29"/>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="15"/>
@@ -8530,9 +8530,9 @@
       <c r="G522" s="27"/>
       <c r="H522" s="27"/>
       <c r="I522" s="27"/>
-      <c r="J522" s="60"/>
-      <c r="K522" s="60"/>
-      <c r="L522" s="60"/>
+      <c r="J522" s="29"/>
+      <c r="K522" s="29"/>
+      <c r="L522" s="29"/>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="15"/>
@@ -8544,9 +8544,9 @@
       <c r="G523" s="27"/>
       <c r="H523" s="27"/>
       <c r="I523" s="27"/>
-      <c r="J523" s="60"/>
-      <c r="K523" s="60"/>
-      <c r="L523" s="60"/>
+      <c r="J523" s="29"/>
+      <c r="K523" s="29"/>
+      <c r="L523" s="29"/>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="15"/>
@@ -8558,9 +8558,9 @@
       <c r="G524" s="27"/>
       <c r="H524" s="27"/>
       <c r="I524" s="27"/>
-      <c r="J524" s="60"/>
-      <c r="K524" s="60"/>
-      <c r="L524" s="60"/>
+      <c r="J524" s="29"/>
+      <c r="K524" s="29"/>
+      <c r="L524" s="29"/>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="15"/>
@@ -8572,9 +8572,9 @@
       <c r="G525" s="27"/>
       <c r="H525" s="27"/>
       <c r="I525" s="27"/>
-      <c r="J525" s="60"/>
-      <c r="K525" s="60"/>
-      <c r="L525" s="60"/>
+      <c r="J525" s="29"/>
+      <c r="K525" s="29"/>
+      <c r="L525" s="29"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="15"/>
@@ -8586,9 +8586,9 @@
       <c r="G526" s="27"/>
       <c r="H526" s="27"/>
       <c r="I526" s="27"/>
-      <c r="J526" s="60"/>
-      <c r="K526" s="60"/>
-      <c r="L526" s="60"/>
+      <c r="J526" s="29"/>
+      <c r="K526" s="29"/>
+      <c r="L526" s="29"/>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="15"/>
@@ -8600,9 +8600,9 @@
       <c r="G527" s="27"/>
       <c r="H527" s="27"/>
       <c r="I527" s="27"/>
-      <c r="J527" s="60"/>
-      <c r="K527" s="60"/>
-      <c r="L527" s="60"/>
+      <c r="J527" s="29"/>
+      <c r="K527" s="29"/>
+      <c r="L527" s="29"/>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="15"/>
@@ -8614,9 +8614,9 @@
       <c r="G528" s="27"/>
       <c r="H528" s="27"/>
       <c r="I528" s="27"/>
-      <c r="J528" s="60"/>
-      <c r="K528" s="60"/>
-      <c r="L528" s="60"/>
+      <c r="J528" s="29"/>
+      <c r="K528" s="29"/>
+      <c r="L528" s="29"/>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="15"/>
@@ -8628,9 +8628,9 @@
       <c r="G529" s="27"/>
       <c r="H529" s="27"/>
       <c r="I529" s="27"/>
-      <c r="J529" s="60"/>
-      <c r="K529" s="60"/>
-      <c r="L529" s="60"/>
+      <c r="J529" s="29"/>
+      <c r="K529" s="29"/>
+      <c r="L529" s="29"/>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="15"/>
@@ -8642,9 +8642,9 @@
       <c r="G530" s="27"/>
       <c r="H530" s="27"/>
       <c r="I530" s="27"/>
-      <c r="J530" s="60"/>
-      <c r="K530" s="60"/>
-      <c r="L530" s="60"/>
+      <c r="J530" s="29"/>
+      <c r="K530" s="29"/>
+      <c r="L530" s="29"/>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="15"/>
@@ -8656,9 +8656,9 @@
       <c r="G531" s="27"/>
       <c r="H531" s="27"/>
       <c r="I531" s="27"/>
-      <c r="J531" s="60"/>
-      <c r="K531" s="60"/>
-      <c r="L531" s="60"/>
+      <c r="J531" s="29"/>
+      <c r="K531" s="29"/>
+      <c r="L531" s="29"/>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="15"/>
@@ -8670,9 +8670,9 @@
       <c r="G532" s="26"/>
       <c r="H532" s="26"/>
       <c r="I532" s="26"/>
-      <c r="J532" s="60"/>
-      <c r="K532" s="60"/>
-      <c r="L532" s="60"/>
+      <c r="J532" s="29"/>
+      <c r="K532" s="29"/>
+      <c r="L532" s="29"/>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="15"/>
@@ -8684,9 +8684,9 @@
       <c r="G533" s="26"/>
       <c r="H533" s="26"/>
       <c r="I533" s="26"/>
-      <c r="J533" s="60"/>
-      <c r="K533" s="60"/>
-      <c r="L533" s="60"/>
+      <c r="J533" s="29"/>
+      <c r="K533" s="29"/>
+      <c r="L533" s="29"/>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="15"/>
@@ -8698,9 +8698,9 @@
       <c r="G534" s="27"/>
       <c r="H534" s="27"/>
       <c r="I534" s="27"/>
-      <c r="J534" s="60"/>
-      <c r="K534" s="60"/>
-      <c r="L534" s="60"/>
+      <c r="J534" s="29"/>
+      <c r="K534" s="29"/>
+      <c r="L534" s="29"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="15"/>
@@ -8712,9 +8712,9 @@
       <c r="G535" s="27"/>
       <c r="H535" s="27"/>
       <c r="I535" s="27"/>
-      <c r="J535" s="60"/>
-      <c r="K535" s="60"/>
-      <c r="L535" s="60"/>
+      <c r="J535" s="29"/>
+      <c r="K535" s="29"/>
+      <c r="L535" s="29"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="15"/>
@@ -8726,9 +8726,9 @@
       <c r="G536" s="27"/>
       <c r="H536" s="27"/>
       <c r="I536" s="27"/>
-      <c r="J536" s="60"/>
-      <c r="K536" s="60"/>
-      <c r="L536" s="60"/>
+      <c r="J536" s="29"/>
+      <c r="K536" s="29"/>
+      <c r="L536" s="29"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="15"/>
@@ -8740,9 +8740,9 @@
       <c r="G537" s="27"/>
       <c r="H537" s="27"/>
       <c r="I537" s="27"/>
-      <c r="J537" s="60"/>
-      <c r="K537" s="60"/>
-      <c r="L537" s="60"/>
+      <c r="J537" s="29"/>
+      <c r="K537" s="29"/>
+      <c r="L537" s="29"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="15"/>
@@ -8754,9 +8754,9 @@
       <c r="G538" s="27"/>
       <c r="H538" s="27"/>
       <c r="I538" s="27"/>
-      <c r="J538" s="60"/>
-      <c r="K538" s="60"/>
-      <c r="L538" s="60"/>
+      <c r="J538" s="29"/>
+      <c r="K538" s="29"/>
+      <c r="L538" s="29"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="15"/>
@@ -8768,9 +8768,9 @@
       <c r="G539" s="27"/>
       <c r="H539" s="27"/>
       <c r="I539" s="27"/>
-      <c r="J539" s="60"/>
-      <c r="K539" s="60"/>
-      <c r="L539" s="60"/>
+      <c r="J539" s="29"/>
+      <c r="K539" s="29"/>
+      <c r="L539" s="29"/>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="15"/>
@@ -8782,9 +8782,9 @@
       <c r="G540" s="27"/>
       <c r="H540" s="27"/>
       <c r="I540" s="27"/>
-      <c r="J540" s="60"/>
-      <c r="K540" s="60"/>
-      <c r="L540" s="60"/>
+      <c r="J540" s="29"/>
+      <c r="K540" s="29"/>
+      <c r="L540" s="29"/>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="15"/>
@@ -8796,9 +8796,9 @@
       <c r="G541" s="27"/>
       <c r="H541" s="27"/>
       <c r="I541" s="27"/>
-      <c r="J541" s="60"/>
-      <c r="K541" s="60"/>
-      <c r="L541" s="60"/>
+      <c r="J541" s="29"/>
+      <c r="K541" s="29"/>
+      <c r="L541" s="29"/>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="15"/>
@@ -8810,9 +8810,9 @@
       <c r="G542" s="27"/>
       <c r="H542" s="27"/>
       <c r="I542" s="27"/>
-      <c r="J542" s="60"/>
-      <c r="K542" s="60"/>
-      <c r="L542" s="60"/>
+      <c r="J542" s="29"/>
+      <c r="K542" s="29"/>
+      <c r="L542" s="29"/>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="15"/>
@@ -8824,9 +8824,9 @@
       <c r="G543" s="27"/>
       <c r="H543" s="27"/>
       <c r="I543" s="27"/>
-      <c r="J543" s="60"/>
-      <c r="K543" s="60"/>
-      <c r="L543" s="60"/>
+      <c r="J543" s="29"/>
+      <c r="K543" s="29"/>
+      <c r="L543" s="29"/>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="15"/>
@@ -8838,9 +8838,9 @@
       <c r="G544" s="27"/>
       <c r="H544" s="27"/>
       <c r="I544" s="27"/>
-      <c r="J544" s="60"/>
-      <c r="K544" s="60"/>
-      <c r="L544" s="60"/>
+      <c r="J544" s="29"/>
+      <c r="K544" s="29"/>
+      <c r="L544" s="29"/>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="15"/>
@@ -8852,9 +8852,9 @@
       <c r="G545" s="27"/>
       <c r="H545" s="27"/>
       <c r="I545" s="27"/>
-      <c r="J545" s="60"/>
-      <c r="K545" s="60"/>
-      <c r="L545" s="60"/>
+      <c r="J545" s="29"/>
+      <c r="K545" s="29"/>
+      <c r="L545" s="29"/>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="15"/>
@@ -8866,9 +8866,9 @@
       <c r="G546" s="27"/>
       <c r="H546" s="27"/>
       <c r="I546" s="27"/>
-      <c r="J546" s="60"/>
-      <c r="K546" s="60"/>
-      <c r="L546" s="60"/>
+      <c r="J546" s="29"/>
+      <c r="K546" s="29"/>
+      <c r="L546" s="29"/>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="15"/>
@@ -8880,9 +8880,9 @@
       <c r="G547" s="27"/>
       <c r="H547" s="27"/>
       <c r="I547" s="27"/>
-      <c r="J547" s="60"/>
-      <c r="K547" s="60"/>
-      <c r="L547" s="60"/>
+      <c r="J547" s="29"/>
+      <c r="K547" s="29"/>
+      <c r="L547" s="29"/>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="15"/>
@@ -8894,9 +8894,9 @@
       <c r="G548" s="27"/>
       <c r="H548" s="27"/>
       <c r="I548" s="27"/>
-      <c r="J548" s="60"/>
-      <c r="K548" s="60"/>
-      <c r="L548" s="60"/>
+      <c r="J548" s="29"/>
+      <c r="K548" s="29"/>
+      <c r="L548" s="29"/>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="15"/>
@@ -8908,9 +8908,9 @@
       <c r="G549" s="27"/>
       <c r="H549" s="27"/>
       <c r="I549" s="27"/>
-      <c r="J549" s="60"/>
-      <c r="K549" s="60"/>
-      <c r="L549" s="60"/>
+      <c r="J549" s="29"/>
+      <c r="K549" s="29"/>
+      <c r="L549" s="29"/>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="15"/>
@@ -8922,9 +8922,9 @@
       <c r="G550" s="27"/>
       <c r="H550" s="27"/>
       <c r="I550" s="27"/>
-      <c r="J550" s="60"/>
-      <c r="K550" s="60"/>
-      <c r="L550" s="60"/>
+      <c r="J550" s="29"/>
+      <c r="K550" s="29"/>
+      <c r="L550" s="29"/>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="15"/>
@@ -8936,9 +8936,9 @@
       <c r="G551" s="27"/>
       <c r="H551" s="27"/>
       <c r="I551" s="27"/>
-      <c r="J551" s="60"/>
-      <c r="K551" s="60"/>
-      <c r="L551" s="60"/>
+      <c r="J551" s="29"/>
+      <c r="K551" s="29"/>
+      <c r="L551" s="29"/>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="15"/>
@@ -8950,9 +8950,9 @@
       <c r="G552" s="27"/>
       <c r="H552" s="27"/>
       <c r="I552" s="27"/>
-      <c r="J552" s="60"/>
-      <c r="K552" s="60"/>
-      <c r="L552" s="60"/>
+      <c r="J552" s="29"/>
+      <c r="K552" s="29"/>
+      <c r="L552" s="29"/>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="15"/>
@@ -8964,9 +8964,9 @@
       <c r="G553" s="27"/>
       <c r="H553" s="27"/>
       <c r="I553" s="27"/>
-      <c r="J553" s="60"/>
-      <c r="K553" s="60"/>
-      <c r="L553" s="60"/>
+      <c r="J553" s="29"/>
+      <c r="K553" s="29"/>
+      <c r="L553" s="29"/>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="15"/>
@@ -8978,9 +8978,9 @@
       <c r="G554" s="26"/>
       <c r="H554" s="26"/>
       <c r="I554" s="26"/>
-      <c r="J554" s="60"/>
-      <c r="K554" s="60"/>
-      <c r="L554" s="60"/>
+      <c r="J554" s="29"/>
+      <c r="K554" s="29"/>
+      <c r="L554" s="29"/>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="15"/>
@@ -8992,9 +8992,9 @@
       <c r="G555" s="26"/>
       <c r="H555" s="26"/>
       <c r="I555" s="26"/>
-      <c r="J555" s="60"/>
-      <c r="K555" s="60"/>
-      <c r="L555" s="60"/>
+      <c r="J555" s="29"/>
+      <c r="K555" s="29"/>
+      <c r="L555" s="29"/>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="15"/>
@@ -9006,9 +9006,9 @@
       <c r="G556" s="27"/>
       <c r="H556" s="27"/>
       <c r="I556" s="27"/>
-      <c r="J556" s="60"/>
-      <c r="K556" s="60"/>
-      <c r="L556" s="60"/>
+      <c r="J556" s="29"/>
+      <c r="K556" s="29"/>
+      <c r="L556" s="29"/>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="15"/>
@@ -9020,9 +9020,9 @@
       <c r="G557" s="27"/>
       <c r="H557" s="27"/>
       <c r="I557" s="27"/>
-      <c r="J557" s="60"/>
-      <c r="K557" s="60"/>
-      <c r="L557" s="60"/>
+      <c r="J557" s="29"/>
+      <c r="K557" s="29"/>
+      <c r="L557" s="29"/>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="15"/>
@@ -9034,9 +9034,9 @@
       <c r="G558" s="27"/>
       <c r="H558" s="27"/>
       <c r="I558" s="27"/>
-      <c r="J558" s="60"/>
-      <c r="K558" s="60"/>
-      <c r="L558" s="60"/>
+      <c r="J558" s="29"/>
+      <c r="K558" s="29"/>
+      <c r="L558" s="29"/>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="15"/>
@@ -9048,9 +9048,9 @@
       <c r="G559" s="27"/>
       <c r="H559" s="27"/>
       <c r="I559" s="27"/>
-      <c r="J559" s="60"/>
-      <c r="K559" s="60"/>
-      <c r="L559" s="60"/>
+      <c r="J559" s="29"/>
+      <c r="K559" s="29"/>
+      <c r="L559" s="29"/>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="15"/>
@@ -9062,9 +9062,9 @@
       <c r="G560" s="27"/>
       <c r="H560" s="27"/>
       <c r="I560" s="27"/>
-      <c r="J560" s="60"/>
-      <c r="K560" s="60"/>
-      <c r="L560" s="60"/>
+      <c r="J560" s="29"/>
+      <c r="K560" s="29"/>
+      <c r="L560" s="29"/>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="15"/>
@@ -9076,9 +9076,9 @@
       <c r="G561" s="27"/>
       <c r="H561" s="27"/>
       <c r="I561" s="27"/>
-      <c r="J561" s="60"/>
-      <c r="K561" s="60"/>
-      <c r="L561" s="60"/>
+      <c r="J561" s="29"/>
+      <c r="K561" s="29"/>
+      <c r="L561" s="29"/>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="15"/>
@@ -9090,9 +9090,9 @@
       <c r="G562" s="27"/>
       <c r="H562" s="27"/>
       <c r="I562" s="27"/>
-      <c r="J562" s="60"/>
-      <c r="K562" s="60"/>
-      <c r="L562" s="60"/>
+      <c r="J562" s="29"/>
+      <c r="K562" s="29"/>
+      <c r="L562" s="29"/>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="15"/>
@@ -9104,9 +9104,9 @@
       <c r="G563" s="27"/>
       <c r="H563" s="27"/>
       <c r="I563" s="27"/>
-      <c r="J563" s="60"/>
-      <c r="K563" s="60"/>
-      <c r="L563" s="60"/>
+      <c r="J563" s="29"/>
+      <c r="K563" s="29"/>
+      <c r="L563" s="29"/>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="15"/>
@@ -9118,9 +9118,9 @@
       <c r="G564" s="27"/>
       <c r="H564" s="27"/>
       <c r="I564" s="27"/>
-      <c r="J564" s="60"/>
-      <c r="K564" s="60"/>
-      <c r="L564" s="60"/>
+      <c r="J564" s="29"/>
+      <c r="K564" s="29"/>
+      <c r="L564" s="29"/>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="15"/>
@@ -9132,9 +9132,9 @@
       <c r="G565" s="27"/>
       <c r="H565" s="27"/>
       <c r="I565" s="27"/>
-      <c r="J565" s="60"/>
-      <c r="K565" s="60"/>
-      <c r="L565" s="60"/>
+      <c r="J565" s="29"/>
+      <c r="K565" s="29"/>
+      <c r="L565" s="29"/>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="15"/>
@@ -9146,9 +9146,9 @@
       <c r="G566" s="27"/>
       <c r="H566" s="27"/>
       <c r="I566" s="27"/>
-      <c r="J566" s="60"/>
-      <c r="K566" s="60"/>
-      <c r="L566" s="60"/>
+      <c r="J566" s="29"/>
+      <c r="K566" s="29"/>
+      <c r="L566" s="29"/>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="15"/>
@@ -9160,9 +9160,9 @@
       <c r="G567" s="27"/>
       <c r="H567" s="27"/>
       <c r="I567" s="27"/>
-      <c r="J567" s="60"/>
-      <c r="K567" s="60"/>
-      <c r="L567" s="60"/>
+      <c r="J567" s="29"/>
+      <c r="K567" s="29"/>
+      <c r="L567" s="29"/>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="15"/>
@@ -9174,9 +9174,9 @@
       <c r="G568" s="27"/>
       <c r="H568" s="27"/>
       <c r="I568" s="27"/>
-      <c r="J568" s="60"/>
-      <c r="K568" s="60"/>
-      <c r="L568" s="60"/>
+      <c r="J568" s="29"/>
+      <c r="K568" s="29"/>
+      <c r="L568" s="29"/>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="15"/>
@@ -9188,9 +9188,9 @@
       <c r="G569" s="27"/>
       <c r="H569" s="27"/>
       <c r="I569" s="27"/>
-      <c r="J569" s="60"/>
-      <c r="K569" s="60"/>
-      <c r="L569" s="60"/>
+      <c r="J569" s="29"/>
+      <c r="K569" s="29"/>
+      <c r="L569" s="29"/>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="15"/>
@@ -9202,9 +9202,9 @@
       <c r="G570" s="27"/>
       <c r="H570" s="27"/>
       <c r="I570" s="27"/>
-      <c r="J570" s="60"/>
-      <c r="K570" s="60"/>
-      <c r="L570" s="60"/>
+      <c r="J570" s="29"/>
+      <c r="K570" s="29"/>
+      <c r="L570" s="29"/>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="15"/>
@@ -9216,9 +9216,9 @@
       <c r="G571" s="27"/>
       <c r="H571" s="27"/>
       <c r="I571" s="27"/>
-      <c r="J571" s="60"/>
-      <c r="K571" s="60"/>
-      <c r="L571" s="60"/>
+      <c r="J571" s="29"/>
+      <c r="K571" s="29"/>
+      <c r="L571" s="29"/>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="15"/>
@@ -9230,9 +9230,9 @@
       <c r="G572" s="27"/>
       <c r="H572" s="27"/>
       <c r="I572" s="27"/>
-      <c r="J572" s="60"/>
-      <c r="K572" s="60"/>
-      <c r="L572" s="60"/>
+      <c r="J572" s="29"/>
+      <c r="K572" s="29"/>
+      <c r="L572" s="29"/>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="15"/>
@@ -9244,9 +9244,9 @@
       <c r="G573" s="27"/>
       <c r="H573" s="27"/>
       <c r="I573" s="27"/>
-      <c r="J573" s="60"/>
-      <c r="K573" s="60"/>
-      <c r="L573" s="60"/>
+      <c r="J573" s="29"/>
+      <c r="K573" s="29"/>
+      <c r="L573" s="29"/>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="15"/>
@@ -9258,9 +9258,9 @@
       <c r="G574" s="27"/>
       <c r="H574" s="27"/>
       <c r="I574" s="27"/>
-      <c r="J574" s="60"/>
-      <c r="K574" s="60"/>
-      <c r="L574" s="60"/>
+      <c r="J574" s="29"/>
+      <c r="K574" s="29"/>
+      <c r="L574" s="29"/>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="15"/>
@@ -9272,9 +9272,9 @@
       <c r="G575" s="27"/>
       <c r="H575" s="27"/>
       <c r="I575" s="27"/>
-      <c r="J575" s="60"/>
-      <c r="K575" s="60"/>
-      <c r="L575" s="60"/>
+      <c r="J575" s="29"/>
+      <c r="K575" s="29"/>
+      <c r="L575" s="29"/>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="15"/>
@@ -9286,9 +9286,9 @@
       <c r="G576" s="26"/>
       <c r="H576" s="26"/>
       <c r="I576" s="26"/>
-      <c r="J576" s="60"/>
-      <c r="K576" s="60"/>
-      <c r="L576" s="60"/>
+      <c r="J576" s="29"/>
+      <c r="K576" s="29"/>
+      <c r="L576" s="29"/>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="15"/>
@@ -9300,9 +9300,9 @@
       <c r="G577" s="26"/>
       <c r="H577" s="26"/>
       <c r="I577" s="26"/>
-      <c r="J577" s="60"/>
-      <c r="K577" s="60"/>
-      <c r="L577" s="60"/>
+      <c r="J577" s="29"/>
+      <c r="K577" s="29"/>
+      <c r="L577" s="29"/>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="15"/>
@@ -9314,9 +9314,9 @@
       <c r="G578" s="27"/>
       <c r="H578" s="27"/>
       <c r="I578" s="27"/>
-      <c r="J578" s="60"/>
-      <c r="K578" s="60"/>
-      <c r="L578" s="60"/>
+      <c r="J578" s="29"/>
+      <c r="K578" s="29"/>
+      <c r="L578" s="29"/>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="15"/>
@@ -9328,9 +9328,9 @@
       <c r="G579" s="27"/>
       <c r="H579" s="27"/>
       <c r="I579" s="27"/>
-      <c r="J579" s="60"/>
-      <c r="K579" s="60"/>
-      <c r="L579" s="60"/>
+      <c r="J579" s="29"/>
+      <c r="K579" s="29"/>
+      <c r="L579" s="29"/>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="15"/>
@@ -9342,9 +9342,9 @@
       <c r="G580" s="27"/>
       <c r="H580" s="27"/>
       <c r="I580" s="27"/>
-      <c r="J580" s="60"/>
-      <c r="K580" s="60"/>
-      <c r="L580" s="60"/>
+      <c r="J580" s="29"/>
+      <c r="K580" s="29"/>
+      <c r="L580" s="29"/>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="15"/>
@@ -9356,9 +9356,9 @@
       <c r="G581" s="27"/>
       <c r="H581" s="27"/>
       <c r="I581" s="27"/>
-      <c r="J581" s="60"/>
-      <c r="K581" s="60"/>
-      <c r="L581" s="60"/>
+      <c r="J581" s="29"/>
+      <c r="K581" s="29"/>
+      <c r="L581" s="29"/>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="15"/>
@@ -9370,9 +9370,9 @@
       <c r="G582" s="27"/>
       <c r="H582" s="27"/>
       <c r="I582" s="27"/>
-      <c r="J582" s="60"/>
-      <c r="K582" s="60"/>
-      <c r="L582" s="60"/>
+      <c r="J582" s="29"/>
+      <c r="K582" s="29"/>
+      <c r="L582" s="29"/>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="15"/>
@@ -9384,9 +9384,9 @@
       <c r="G583" s="27"/>
       <c r="H583" s="27"/>
       <c r="I583" s="27"/>
-      <c r="J583" s="60"/>
-      <c r="K583" s="60"/>
-      <c r="L583" s="60"/>
+      <c r="J583" s="29"/>
+      <c r="K583" s="29"/>
+      <c r="L583" s="29"/>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="15"/>
@@ -9398,9 +9398,9 @@
       <c r="G584" s="27"/>
       <c r="H584" s="27"/>
       <c r="I584" s="27"/>
-      <c r="J584" s="60"/>
-      <c r="K584" s="60"/>
-      <c r="L584" s="60"/>
+      <c r="J584" s="29"/>
+      <c r="K584" s="29"/>
+      <c r="L584" s="29"/>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="15"/>
@@ -9412,9 +9412,9 @@
       <c r="G585" s="27"/>
       <c r="H585" s="27"/>
       <c r="I585" s="27"/>
-      <c r="J585" s="60"/>
-      <c r="K585" s="60"/>
-      <c r="L585" s="60"/>
+      <c r="J585" s="29"/>
+      <c r="K585" s="29"/>
+      <c r="L585" s="29"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="15"/>
@@ -9426,9 +9426,9 @@
       <c r="G586" s="27"/>
       <c r="H586" s="27"/>
       <c r="I586" s="27"/>
-      <c r="J586" s="60"/>
-      <c r="K586" s="60"/>
-      <c r="L586" s="60"/>
+      <c r="J586" s="29"/>
+      <c r="K586" s="29"/>
+      <c r="L586" s="29"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="15"/>
@@ -9440,9 +9440,9 @@
       <c r="G587" s="27"/>
       <c r="H587" s="27"/>
       <c r="I587" s="27"/>
-      <c r="J587" s="60"/>
-      <c r="K587" s="60"/>
-      <c r="L587" s="60"/>
+      <c r="J587" s="29"/>
+      <c r="K587" s="29"/>
+      <c r="L587" s="29"/>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="15"/>
@@ -9454,9 +9454,9 @@
       <c r="G588" s="27"/>
       <c r="H588" s="27"/>
       <c r="I588" s="27"/>
-      <c r="J588" s="60"/>
-      <c r="K588" s="60"/>
-      <c r="L588" s="60"/>
+      <c r="J588" s="29"/>
+      <c r="K588" s="29"/>
+      <c r="L588" s="29"/>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="15"/>
@@ -9468,9 +9468,9 @@
       <c r="G589" s="27"/>
       <c r="H589" s="27"/>
       <c r="I589" s="27"/>
-      <c r="J589" s="60"/>
-      <c r="K589" s="60"/>
-      <c r="L589" s="60"/>
+      <c r="J589" s="29"/>
+      <c r="K589" s="29"/>
+      <c r="L589" s="29"/>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="15"/>
@@ -9482,9 +9482,9 @@
       <c r="G590" s="27"/>
       <c r="H590" s="27"/>
       <c r="I590" s="27"/>
-      <c r="J590" s="60"/>
-      <c r="K590" s="60"/>
-      <c r="L590" s="60"/>
+      <c r="J590" s="29"/>
+      <c r="K590" s="29"/>
+      <c r="L590" s="29"/>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="15"/>
@@ -9496,9 +9496,9 @@
       <c r="G591" s="27"/>
       <c r="H591" s="27"/>
       <c r="I591" s="27"/>
-      <c r="J591" s="60"/>
-      <c r="K591" s="60"/>
-      <c r="L591" s="60"/>
+      <c r="J591" s="29"/>
+      <c r="K591" s="29"/>
+      <c r="L591" s="29"/>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="15"/>
@@ -9510,9 +9510,9 @@
       <c r="G592" s="27"/>
       <c r="H592" s="27"/>
       <c r="I592" s="27"/>
-      <c r="J592" s="60"/>
-      <c r="K592" s="60"/>
-      <c r="L592" s="60"/>
+      <c r="J592" s="29"/>
+      <c r="K592" s="29"/>
+      <c r="L592" s="29"/>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="15"/>
@@ -9524,9 +9524,9 @@
       <c r="G593" s="27"/>
       <c r="H593" s="27"/>
       <c r="I593" s="27"/>
-      <c r="J593" s="60"/>
-      <c r="K593" s="60"/>
-      <c r="L593" s="60"/>
+      <c r="J593" s="29"/>
+      <c r="K593" s="29"/>
+      <c r="L593" s="29"/>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="15"/>
@@ -9538,9 +9538,9 @@
       <c r="G594" s="27"/>
       <c r="H594" s="27"/>
       <c r="I594" s="27"/>
-      <c r="J594" s="60"/>
-      <c r="K594" s="60"/>
-      <c r="L594" s="60"/>
+      <c r="J594" s="29"/>
+      <c r="K594" s="29"/>
+      <c r="L594" s="29"/>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="15"/>
@@ -9552,9 +9552,9 @@
       <c r="G595" s="27"/>
       <c r="H595" s="27"/>
       <c r="I595" s="27"/>
-      <c r="J595" s="60"/>
-      <c r="K595" s="60"/>
-      <c r="L595" s="60"/>
+      <c r="J595" s="29"/>
+      <c r="K595" s="29"/>
+      <c r="L595" s="29"/>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="15"/>
@@ -9566,9 +9566,9 @@
       <c r="G596" s="27"/>
       <c r="H596" s="27"/>
       <c r="I596" s="27"/>
-      <c r="J596" s="60"/>
-      <c r="K596" s="60"/>
-      <c r="L596" s="60"/>
+      <c r="J596" s="29"/>
+      <c r="K596" s="29"/>
+      <c r="L596" s="29"/>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="15"/>
@@ -9580,9 +9580,9 @@
       <c r="G597" s="27"/>
       <c r="H597" s="27"/>
       <c r="I597" s="27"/>
-      <c r="J597" s="60"/>
-      <c r="K597" s="60"/>
-      <c r="L597" s="60"/>
+      <c r="J597" s="29"/>
+      <c r="K597" s="29"/>
+      <c r="L597" s="29"/>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="15"/>
@@ -9594,9 +9594,9 @@
       <c r="G598" s="26"/>
       <c r="H598" s="26"/>
       <c r="I598" s="26"/>
-      <c r="J598" s="60"/>
-      <c r="K598" s="60"/>
-      <c r="L598" s="60"/>
+      <c r="J598" s="29"/>
+      <c r="K598" s="29"/>
+      <c r="L598" s="29"/>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="15"/>
@@ -9608,9 +9608,9 @@
       <c r="G599" s="26"/>
       <c r="H599" s="26"/>
       <c r="I599" s="26"/>
-      <c r="J599" s="60"/>
-      <c r="K599" s="60"/>
-      <c r="L599" s="60"/>
+      <c r="J599" s="29"/>
+      <c r="K599" s="29"/>
+      <c r="L599" s="29"/>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="15"/>
@@ -9622,9 +9622,9 @@
       <c r="G600" s="27"/>
       <c r="H600" s="27"/>
       <c r="I600" s="27"/>
-      <c r="J600" s="60"/>
-      <c r="K600" s="60"/>
-      <c r="L600" s="60"/>
+      <c r="J600" s="29"/>
+      <c r="K600" s="29"/>
+      <c r="L600" s="29"/>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="15"/>
@@ -9636,9 +9636,9 @@
       <c r="G601" s="27"/>
       <c r="H601" s="27"/>
       <c r="I601" s="27"/>
-      <c r="J601" s="60"/>
-      <c r="K601" s="60"/>
-      <c r="L601" s="60"/>
+      <c r="J601" s="29"/>
+      <c r="K601" s="29"/>
+      <c r="L601" s="29"/>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="15"/>
@@ -9650,9 +9650,9 @@
       <c r="G602" s="27"/>
       <c r="H602" s="27"/>
       <c r="I602" s="27"/>
-      <c r="J602" s="60"/>
-      <c r="K602" s="60"/>
-      <c r="L602" s="60"/>
+      <c r="J602" s="29"/>
+      <c r="K602" s="29"/>
+      <c r="L602" s="29"/>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="15"/>
@@ -9664,9 +9664,9 @@
       <c r="G603" s="27"/>
       <c r="H603" s="27"/>
       <c r="I603" s="27"/>
-      <c r="J603" s="60"/>
-      <c r="K603" s="60"/>
-      <c r="L603" s="60"/>
+      <c r="J603" s="29"/>
+      <c r="K603" s="29"/>
+      <c r="L603" s="29"/>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="15"/>
@@ -9678,9 +9678,9 @@
       <c r="G604" s="27"/>
       <c r="H604" s="27"/>
       <c r="I604" s="27"/>
-      <c r="J604" s="60"/>
-      <c r="K604" s="60"/>
-      <c r="L604" s="60"/>
+      <c r="J604" s="29"/>
+      <c r="K604" s="29"/>
+      <c r="L604" s="29"/>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="15"/>
@@ -9692,9 +9692,9 @@
       <c r="G605" s="27"/>
       <c r="H605" s="27"/>
       <c r="I605" s="27"/>
-      <c r="J605" s="60"/>
-      <c r="K605" s="60"/>
-      <c r="L605" s="60"/>
+      <c r="J605" s="29"/>
+      <c r="K605" s="29"/>
+      <c r="L605" s="29"/>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="15"/>
@@ -9706,9 +9706,9 @@
       <c r="G606" s="27"/>
       <c r="H606" s="27"/>
       <c r="I606" s="27"/>
-      <c r="J606" s="60"/>
-      <c r="K606" s="60"/>
-      <c r="L606" s="60"/>
+      <c r="J606" s="29"/>
+      <c r="K606" s="29"/>
+      <c r="L606" s="29"/>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="15"/>
@@ -9720,9 +9720,9 @@
       <c r="G607" s="27"/>
       <c r="H607" s="27"/>
       <c r="I607" s="27"/>
-      <c r="J607" s="60"/>
-      <c r="K607" s="60"/>
-      <c r="L607" s="60"/>
+      <c r="J607" s="29"/>
+      <c r="K607" s="29"/>
+      <c r="L607" s="29"/>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="15"/>
@@ -9734,9 +9734,9 @@
       <c r="G608" s="27"/>
       <c r="H608" s="27"/>
       <c r="I608" s="27"/>
-      <c r="J608" s="60"/>
-      <c r="K608" s="60"/>
-      <c r="L608" s="60"/>
+      <c r="J608" s="29"/>
+      <c r="K608" s="29"/>
+      <c r="L608" s="29"/>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="15"/>
@@ -9748,9 +9748,9 @@
       <c r="G609" s="27"/>
       <c r="H609" s="27"/>
       <c r="I609" s="27"/>
-      <c r="J609" s="60"/>
-      <c r="K609" s="60"/>
-      <c r="L609" s="60"/>
+      <c r="J609" s="29"/>
+      <c r="K609" s="29"/>
+      <c r="L609" s="29"/>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="15"/>
@@ -9762,9 +9762,9 @@
       <c r="G610" s="27"/>
       <c r="H610" s="27"/>
       <c r="I610" s="27"/>
-      <c r="J610" s="60"/>
-      <c r="K610" s="60"/>
-      <c r="L610" s="60"/>
+      <c r="J610" s="29"/>
+      <c r="K610" s="29"/>
+      <c r="L610" s="29"/>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="15"/>
@@ -9776,9 +9776,9 @@
       <c r="G611" s="27"/>
       <c r="H611" s="27"/>
       <c r="I611" s="27"/>
-      <c r="J611" s="60"/>
-      <c r="K611" s="60"/>
-      <c r="L611" s="60"/>
+      <c r="J611" s="29"/>
+      <c r="K611" s="29"/>
+      <c r="L611" s="29"/>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="15"/>
@@ -9790,9 +9790,9 @@
       <c r="G612" s="27"/>
       <c r="H612" s="27"/>
       <c r="I612" s="27"/>
-      <c r="J612" s="60"/>
-      <c r="K612" s="60"/>
-      <c r="L612" s="60"/>
+      <c r="J612" s="29"/>
+      <c r="K612" s="29"/>
+      <c r="L612" s="29"/>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="15"/>
@@ -9804,9 +9804,9 @@
       <c r="G613" s="27"/>
       <c r="H613" s="27"/>
       <c r="I613" s="27"/>
-      <c r="J613" s="60"/>
-      <c r="K613" s="60"/>
-      <c r="L613" s="60"/>
+      <c r="J613" s="29"/>
+      <c r="K613" s="29"/>
+      <c r="L613" s="29"/>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="15"/>
@@ -9818,9 +9818,9 @@
       <c r="G614" s="27"/>
       <c r="H614" s="27"/>
       <c r="I614" s="27"/>
-      <c r="J614" s="60"/>
-      <c r="K614" s="60"/>
-      <c r="L614" s="60"/>
+      <c r="J614" s="29"/>
+      <c r="K614" s="29"/>
+      <c r="L614" s="29"/>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="15"/>
@@ -9832,9 +9832,9 @@
       <c r="G615" s="27"/>
       <c r="H615" s="27"/>
       <c r="I615" s="27"/>
-      <c r="J615" s="60"/>
-      <c r="K615" s="60"/>
-      <c r="L615" s="60"/>
+      <c r="J615" s="29"/>
+      <c r="K615" s="29"/>
+      <c r="L615" s="29"/>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="15"/>
@@ -9846,9 +9846,9 @@
       <c r="G616" s="27"/>
       <c r="H616" s="27"/>
       <c r="I616" s="27"/>
-      <c r="J616" s="60"/>
-      <c r="K616" s="60"/>
-      <c r="L616" s="60"/>
+      <c r="J616" s="29"/>
+      <c r="K616" s="29"/>
+      <c r="L616" s="29"/>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="15"/>
@@ -9860,9 +9860,9 @@
       <c r="G617" s="27"/>
       <c r="H617" s="27"/>
       <c r="I617" s="27"/>
-      <c r="J617" s="60"/>
-      <c r="K617" s="60"/>
-      <c r="L617" s="60"/>
+      <c r="J617" s="29"/>
+      <c r="K617" s="29"/>
+      <c r="L617" s="29"/>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="15"/>
@@ -9874,9 +9874,9 @@
       <c r="G618" s="27"/>
       <c r="H618" s="27"/>
       <c r="I618" s="27"/>
-      <c r="J618" s="60"/>
-      <c r="K618" s="60"/>
-      <c r="L618" s="60"/>
+      <c r="J618" s="29"/>
+      <c r="K618" s="29"/>
+      <c r="L618" s="29"/>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="15"/>
@@ -9888,9 +9888,9 @@
       <c r="G619" s="27"/>
       <c r="H619" s="27"/>
       <c r="I619" s="27"/>
-      <c r="J619" s="60"/>
-      <c r="K619" s="60"/>
-      <c r="L619" s="60"/>
+      <c r="J619" s="29"/>
+      <c r="K619" s="29"/>
+      <c r="L619" s="29"/>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="15"/>
@@ -9902,9 +9902,9 @@
       <c r="G620" s="26"/>
       <c r="H620" s="26"/>
       <c r="I620" s="26"/>
-      <c r="J620" s="60"/>
-      <c r="K620" s="60"/>
-      <c r="L620" s="60"/>
+      <c r="J620" s="29"/>
+      <c r="K620" s="29"/>
+      <c r="L620" s="29"/>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="15"/>
@@ -9916,9 +9916,9 @@
       <c r="G621" s="26"/>
       <c r="H621" s="26"/>
       <c r="I621" s="26"/>
-      <c r="J621" s="60"/>
-      <c r="K621" s="60"/>
-      <c r="L621" s="60"/>
+      <c r="J621" s="29"/>
+      <c r="K621" s="29"/>
+      <c r="L621" s="29"/>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="15"/>
@@ -9930,9 +9930,9 @@
       <c r="G622" s="27"/>
       <c r="H622" s="27"/>
       <c r="I622" s="27"/>
-      <c r="J622" s="60"/>
-      <c r="K622" s="60"/>
-      <c r="L622" s="60"/>
+      <c r="J622" s="29"/>
+      <c r="K622" s="29"/>
+      <c r="L622" s="29"/>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="15"/>
@@ -9944,9 +9944,9 @@
       <c r="G623" s="27"/>
       <c r="H623" s="27"/>
       <c r="I623" s="27"/>
-      <c r="J623" s="60"/>
-      <c r="K623" s="60"/>
-      <c r="L623" s="60"/>
+      <c r="J623" s="29"/>
+      <c r="K623" s="29"/>
+      <c r="L623" s="29"/>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="15"/>
@@ -9958,9 +9958,9 @@
       <c r="G624" s="27"/>
       <c r="H624" s="27"/>
       <c r="I624" s="27"/>
-      <c r="J624" s="60"/>
-      <c r="K624" s="60"/>
-      <c r="L624" s="60"/>
+      <c r="J624" s="29"/>
+      <c r="K624" s="29"/>
+      <c r="L624" s="29"/>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="15"/>
@@ -9972,9 +9972,9 @@
       <c r="G625" s="27"/>
       <c r="H625" s="27"/>
       <c r="I625" s="27"/>
-      <c r="J625" s="60"/>
-      <c r="K625" s="60"/>
-      <c r="L625" s="60"/>
+      <c r="J625" s="29"/>
+      <c r="K625" s="29"/>
+      <c r="L625" s="29"/>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="15"/>
@@ -9986,9 +9986,9 @@
       <c r="G626" s="27"/>
       <c r="H626" s="27"/>
       <c r="I626" s="27"/>
-      <c r="J626" s="60"/>
-      <c r="K626" s="60"/>
-      <c r="L626" s="60"/>
+      <c r="J626" s="29"/>
+      <c r="K626" s="29"/>
+      <c r="L626" s="29"/>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="15"/>
@@ -10000,9 +10000,9 @@
       <c r="G627" s="27"/>
       <c r="H627" s="27"/>
       <c r="I627" s="27"/>
-      <c r="J627" s="60"/>
-      <c r="K627" s="60"/>
-      <c r="L627" s="60"/>
+      <c r="J627" s="29"/>
+      <c r="K627" s="29"/>
+      <c r="L627" s="29"/>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="15"/>
@@ -10014,9 +10014,9 @@
       <c r="G628" s="27"/>
       <c r="H628" s="27"/>
       <c r="I628" s="27"/>
-      <c r="J628" s="60"/>
-      <c r="K628" s="60"/>
-      <c r="L628" s="60"/>
+      <c r="J628" s="29"/>
+      <c r="K628" s="29"/>
+      <c r="L628" s="29"/>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="15"/>
@@ -10028,9 +10028,9 @@
       <c r="G629" s="27"/>
       <c r="H629" s="27"/>
       <c r="I629" s="27"/>
-      <c r="J629" s="60"/>
-      <c r="K629" s="60"/>
-      <c r="L629" s="60"/>
+      <c r="J629" s="29"/>
+      <c r="K629" s="29"/>
+      <c r="L629" s="29"/>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="15"/>
@@ -10042,9 +10042,9 @@
       <c r="G630" s="27"/>
       <c r="H630" s="27"/>
       <c r="I630" s="27"/>
-      <c r="J630" s="60"/>
-      <c r="K630" s="60"/>
-      <c r="L630" s="60"/>
+      <c r="J630" s="29"/>
+      <c r="K630" s="29"/>
+      <c r="L630" s="29"/>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="15"/>
@@ -10056,9 +10056,9 @@
       <c r="G631" s="27"/>
       <c r="H631" s="27"/>
       <c r="I631" s="27"/>
-      <c r="J631" s="60"/>
-      <c r="K631" s="60"/>
-      <c r="L631" s="60"/>
+      <c r="J631" s="29"/>
+      <c r="K631" s="29"/>
+      <c r="L631" s="29"/>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="15"/>
@@ -10070,9 +10070,9 @@
       <c r="G632" s="27"/>
       <c r="H632" s="27"/>
       <c r="I632" s="27"/>
-      <c r="J632" s="60"/>
-      <c r="K632" s="60"/>
-      <c r="L632" s="60"/>
+      <c r="J632" s="29"/>
+      <c r="K632" s="29"/>
+      <c r="L632" s="29"/>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="15"/>
@@ -10084,9 +10084,9 @@
       <c r="G633" s="27"/>
       <c r="H633" s="27"/>
       <c r="I633" s="27"/>
-      <c r="J633" s="60"/>
-      <c r="K633" s="60"/>
-      <c r="L633" s="60"/>
+      <c r="J633" s="29"/>
+      <c r="K633" s="29"/>
+      <c r="L633" s="29"/>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="15"/>
@@ -10098,9 +10098,9 @@
       <c r="G634" s="27"/>
       <c r="H634" s="27"/>
       <c r="I634" s="27"/>
-      <c r="J634" s="60"/>
-      <c r="K634" s="60"/>
-      <c r="L634" s="60"/>
+      <c r="J634" s="29"/>
+      <c r="K634" s="29"/>
+      <c r="L634" s="29"/>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="15"/>
@@ -10112,9 +10112,9 @@
       <c r="G635" s="27"/>
       <c r="H635" s="27"/>
       <c r="I635" s="27"/>
-      <c r="J635" s="60"/>
-      <c r="K635" s="60"/>
-      <c r="L635" s="60"/>
+      <c r="J635" s="29"/>
+      <c r="K635" s="29"/>
+      <c r="L635" s="29"/>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="15"/>
@@ -10126,9 +10126,9 @@
       <c r="G636" s="27"/>
       <c r="H636" s="27"/>
       <c r="I636" s="27"/>
-      <c r="J636" s="60"/>
-      <c r="K636" s="60"/>
-      <c r="L636" s="60"/>
+      <c r="J636" s="29"/>
+      <c r="K636" s="29"/>
+      <c r="L636" s="29"/>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="15"/>
@@ -10140,9 +10140,9 @@
       <c r="G637" s="27"/>
       <c r="H637" s="27"/>
       <c r="I637" s="27"/>
-      <c r="J637" s="60"/>
-      <c r="K637" s="60"/>
-      <c r="L637" s="60"/>
+      <c r="J637" s="29"/>
+      <c r="K637" s="29"/>
+      <c r="L637" s="29"/>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="15"/>
@@ -10154,9 +10154,9 @@
       <c r="G638" s="27"/>
       <c r="H638" s="27"/>
       <c r="I638" s="27"/>
-      <c r="J638" s="60"/>
-      <c r="K638" s="60"/>
-      <c r="L638" s="60"/>
+      <c r="J638" s="29"/>
+      <c r="K638" s="29"/>
+      <c r="L638" s="29"/>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="15"/>
@@ -10168,9 +10168,9 @@
       <c r="G639" s="27"/>
       <c r="H639" s="27"/>
       <c r="I639" s="27"/>
-      <c r="J639" s="60"/>
-      <c r="K639" s="60"/>
-      <c r="L639" s="60"/>
+      <c r="J639" s="29"/>
+      <c r="K639" s="29"/>
+      <c r="L639" s="29"/>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="15"/>
@@ -10182,9 +10182,9 @@
       <c r="G640" s="27"/>
       <c r="H640" s="27"/>
       <c r="I640" s="27"/>
-      <c r="J640" s="60"/>
-      <c r="K640" s="60"/>
-      <c r="L640" s="60"/>
+      <c r="J640" s="29"/>
+      <c r="K640" s="29"/>
+      <c r="L640" s="29"/>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="15"/>
@@ -10196,9 +10196,9 @@
       <c r="G641" s="27"/>
       <c r="H641" s="27"/>
       <c r="I641" s="27"/>
-      <c r="J641" s="60"/>
-      <c r="K641" s="60"/>
-      <c r="L641" s="60"/>
+      <c r="J641" s="29"/>
+      <c r="K641" s="29"/>
+      <c r="L641" s="29"/>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="15"/>
@@ -10210,9 +10210,9 @@
       <c r="G642" s="26"/>
       <c r="H642" s="26"/>
       <c r="I642" s="26"/>
-      <c r="J642" s="60"/>
-      <c r="K642" s="60"/>
-      <c r="L642" s="60"/>
+      <c r="J642" s="29"/>
+      <c r="K642" s="29"/>
+      <c r="L642" s="29"/>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="15"/>
@@ -10224,9 +10224,9 @@
       <c r="G643" s="26"/>
       <c r="H643" s="26"/>
       <c r="I643" s="26"/>
-      <c r="J643" s="60"/>
-      <c r="K643" s="60"/>
-      <c r="L643" s="60"/>
+      <c r="J643" s="29"/>
+      <c r="K643" s="29"/>
+      <c r="L643" s="29"/>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" s="15"/>
@@ -10238,9 +10238,9 @@
       <c r="G644" s="27"/>
       <c r="H644" s="27"/>
       <c r="I644" s="27"/>
-      <c r="J644" s="60"/>
-      <c r="K644" s="60"/>
-      <c r="L644" s="60"/>
+      <c r="J644" s="29"/>
+      <c r="K644" s="29"/>
+      <c r="L644" s="29"/>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" s="15"/>
@@ -10252,9 +10252,9 @@
       <c r="G645" s="27"/>
       <c r="H645" s="27"/>
       <c r="I645" s="27"/>
-      <c r="J645" s="60"/>
-      <c r="K645" s="60"/>
-      <c r="L645" s="60"/>
+      <c r="J645" s="29"/>
+      <c r="K645" s="29"/>
+      <c r="L645" s="29"/>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" s="15"/>
@@ -10266,9 +10266,9 @@
       <c r="G646" s="27"/>
       <c r="H646" s="27"/>
       <c r="I646" s="27"/>
-      <c r="J646" s="60"/>
-      <c r="K646" s="60"/>
-      <c r="L646" s="60"/>
+      <c r="J646" s="29"/>
+      <c r="K646" s="29"/>
+      <c r="L646" s="29"/>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="15"/>
@@ -10280,9 +10280,9 @@
       <c r="G647" s="27"/>
       <c r="H647" s="27"/>
       <c r="I647" s="27"/>
-      <c r="J647" s="60"/>
-      <c r="K647" s="60"/>
-      <c r="L647" s="60"/>
+      <c r="J647" s="29"/>
+      <c r="K647" s="29"/>
+      <c r="L647" s="29"/>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="15"/>
@@ -10294,9 +10294,9 @@
       <c r="G648" s="27"/>
       <c r="H648" s="27"/>
       <c r="I648" s="27"/>
-      <c r="J648" s="60"/>
-      <c r="K648" s="60"/>
-      <c r="L648" s="60"/>
+      <c r="J648" s="29"/>
+      <c r="K648" s="29"/>
+      <c r="L648" s="29"/>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="15"/>
@@ -10308,9 +10308,9 @@
       <c r="G649" s="27"/>
       <c r="H649" s="27"/>
       <c r="I649" s="27"/>
-      <c r="J649" s="60"/>
-      <c r="K649" s="60"/>
-      <c r="L649" s="60"/>
+      <c r="J649" s="29"/>
+      <c r="K649" s="29"/>
+      <c r="L649" s="29"/>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="15"/>
@@ -10322,9 +10322,9 @@
       <c r="G650" s="27"/>
       <c r="H650" s="27"/>
       <c r="I650" s="27"/>
-      <c r="J650" s="60"/>
-      <c r="K650" s="60"/>
-      <c r="L650" s="60"/>
+      <c r="J650" s="29"/>
+      <c r="K650" s="29"/>
+      <c r="L650" s="29"/>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="15"/>
@@ -10336,9 +10336,9 @@
       <c r="G651" s="27"/>
       <c r="H651" s="27"/>
       <c r="I651" s="27"/>
-      <c r="J651" s="60"/>
-      <c r="K651" s="60"/>
-      <c r="L651" s="60"/>
+      <c r="J651" s="29"/>
+      <c r="K651" s="29"/>
+      <c r="L651" s="29"/>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="15"/>
@@ -10350,9 +10350,9 @@
       <c r="G652" s="27"/>
       <c r="H652" s="27"/>
       <c r="I652" s="27"/>
-      <c r="J652" s="60"/>
-      <c r="K652" s="60"/>
-      <c r="L652" s="60"/>
+      <c r="J652" s="29"/>
+      <c r="K652" s="29"/>
+      <c r="L652" s="29"/>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="15"/>
@@ -10364,9 +10364,9 @@
       <c r="G653" s="27"/>
       <c r="H653" s="27"/>
       <c r="I653" s="27"/>
-      <c r="J653" s="60"/>
-      <c r="K653" s="60"/>
-      <c r="L653" s="60"/>
+      <c r="J653" s="29"/>
+      <c r="K653" s="29"/>
+      <c r="L653" s="29"/>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="15"/>
@@ -10378,9 +10378,9 @@
       <c r="G654" s="27"/>
       <c r="H654" s="27"/>
       <c r="I654" s="27"/>
-      <c r="J654" s="60"/>
-      <c r="K654" s="60"/>
-      <c r="L654" s="60"/>
+      <c r="J654" s="29"/>
+      <c r="K654" s="29"/>
+      <c r="L654" s="29"/>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="15"/>
@@ -10392,9 +10392,9 @@
       <c r="G655" s="27"/>
       <c r="H655" s="27"/>
       <c r="I655" s="27"/>
-      <c r="J655" s="60"/>
-      <c r="K655" s="60"/>
-      <c r="L655" s="60"/>
+      <c r="J655" s="29"/>
+      <c r="K655" s="29"/>
+      <c r="L655" s="29"/>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="15"/>
@@ -10406,9 +10406,9 @@
       <c r="G656" s="27"/>
       <c r="H656" s="27"/>
       <c r="I656" s="27"/>
-      <c r="J656" s="60"/>
-      <c r="K656" s="60"/>
-      <c r="L656" s="60"/>
+      <c r="J656" s="29"/>
+      <c r="K656" s="29"/>
+      <c r="L656" s="29"/>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="15"/>
@@ -10420,9 +10420,9 @@
       <c r="G657" s="27"/>
       <c r="H657" s="27"/>
       <c r="I657" s="27"/>
-      <c r="J657" s="60"/>
-      <c r="K657" s="60"/>
-      <c r="L657" s="60"/>
+      <c r="J657" s="29"/>
+      <c r="K657" s="29"/>
+      <c r="L657" s="29"/>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="15"/>
@@ -10434,9 +10434,9 @@
       <c r="G658" s="27"/>
       <c r="H658" s="27"/>
       <c r="I658" s="27"/>
-      <c r="J658" s="60"/>
-      <c r="K658" s="60"/>
-      <c r="L658" s="60"/>
+      <c r="J658" s="29"/>
+      <c r="K658" s="29"/>
+      <c r="L658" s="29"/>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" s="15"/>
@@ -10448,9 +10448,9 @@
       <c r="G659" s="27"/>
       <c r="H659" s="27"/>
       <c r="I659" s="27"/>
-      <c r="J659" s="60"/>
-      <c r="K659" s="60"/>
-      <c r="L659" s="60"/>
+      <c r="J659" s="29"/>
+      <c r="K659" s="29"/>
+      <c r="L659" s="29"/>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" s="15"/>
@@ -10462,9 +10462,9 @@
       <c r="G660" s="27"/>
       <c r="H660" s="27"/>
       <c r="I660" s="27"/>
-      <c r="J660" s="60"/>
-      <c r="K660" s="60"/>
-      <c r="L660" s="60"/>
+      <c r="J660" s="29"/>
+      <c r="K660" s="29"/>
+      <c r="L660" s="29"/>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="15"/>
@@ -10476,9 +10476,9 @@
       <c r="G661" s="27"/>
       <c r="H661" s="27"/>
       <c r="I661" s="27"/>
-      <c r="J661" s="60"/>
-      <c r="K661" s="60"/>
-      <c r="L661" s="60"/>
+      <c r="J661" s="29"/>
+      <c r="K661" s="29"/>
+      <c r="L661" s="29"/>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="15"/>
@@ -10490,9 +10490,9 @@
       <c r="G662" s="27"/>
       <c r="H662" s="27"/>
       <c r="I662" s="27"/>
-      <c r="J662" s="60"/>
-      <c r="K662" s="60"/>
-      <c r="L662" s="60"/>
+      <c r="J662" s="29"/>
+      <c r="K662" s="29"/>
+      <c r="L662" s="29"/>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="15"/>
@@ -10504,9 +10504,9 @@
       <c r="G663" s="27"/>
       <c r="H663" s="27"/>
       <c r="I663" s="27"/>
-      <c r="J663" s="60"/>
-      <c r="K663" s="60"/>
-      <c r="L663" s="60"/>
+      <c r="J663" s="29"/>
+      <c r="K663" s="29"/>
+      <c r="L663" s="29"/>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="15"/>
@@ -10518,9 +10518,9 @@
       <c r="G664" s="26"/>
       <c r="H664" s="26"/>
       <c r="I664" s="26"/>
-      <c r="J664" s="60"/>
-      <c r="K664" s="60"/>
-      <c r="L664" s="60"/>
+      <c r="J664" s="29"/>
+      <c r="K664" s="29"/>
+      <c r="L664" s="29"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="15"/>
@@ -10532,9 +10532,9 @@
       <c r="G665" s="26"/>
       <c r="H665" s="26"/>
       <c r="I665" s="26"/>
-      <c r="J665" s="60"/>
-      <c r="K665" s="60"/>
-      <c r="L665" s="60"/>
+      <c r="J665" s="29"/>
+      <c r="K665" s="29"/>
+      <c r="L665" s="29"/>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="15"/>
@@ -10546,9 +10546,9 @@
       <c r="G666" s="27"/>
       <c r="H666" s="27"/>
       <c r="I666" s="27"/>
-      <c r="J666" s="60"/>
-      <c r="K666" s="60"/>
-      <c r="L666" s="60"/>
+      <c r="J666" s="29"/>
+      <c r="K666" s="29"/>
+      <c r="L666" s="29"/>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="15"/>
@@ -10560,9 +10560,9 @@
       <c r="G667" s="27"/>
       <c r="H667" s="27"/>
       <c r="I667" s="27"/>
-      <c r="J667" s="60"/>
-      <c r="K667" s="60"/>
-      <c r="L667" s="60"/>
+      <c r="J667" s="29"/>
+      <c r="K667" s="29"/>
+      <c r="L667" s="29"/>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="15"/>
@@ -10574,9 +10574,9 @@
       <c r="G668" s="27"/>
       <c r="H668" s="27"/>
       <c r="I668" s="27"/>
-      <c r="J668" s="60"/>
-      <c r="K668" s="60"/>
-      <c r="L668" s="60"/>
+      <c r="J668" s="29"/>
+      <c r="K668" s="29"/>
+      <c r="L668" s="29"/>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="15"/>
@@ -10588,9 +10588,9 @@
       <c r="G669" s="27"/>
       <c r="H669" s="27"/>
       <c r="I669" s="27"/>
-      <c r="J669" s="60"/>
-      <c r="K669" s="60"/>
-      <c r="L669" s="60"/>
+      <c r="J669" s="29"/>
+      <c r="K669" s="29"/>
+      <c r="L669" s="29"/>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="15"/>
@@ -10602,9 +10602,9 @@
       <c r="G670" s="27"/>
       <c r="H670" s="27"/>
       <c r="I670" s="27"/>
-      <c r="J670" s="60"/>
-      <c r="K670" s="60"/>
-      <c r="L670" s="60"/>
+      <c r="J670" s="29"/>
+      <c r="K670" s="29"/>
+      <c r="L670" s="29"/>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="15"/>
@@ -10616,9 +10616,9 @@
       <c r="G671" s="27"/>
       <c r="H671" s="27"/>
       <c r="I671" s="27"/>
-      <c r="J671" s="60"/>
-      <c r="K671" s="60"/>
-      <c r="L671" s="60"/>
+      <c r="J671" s="29"/>
+      <c r="K671" s="29"/>
+      <c r="L671" s="29"/>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="15"/>
@@ -10630,9 +10630,9 @@
       <c r="G672" s="27"/>
       <c r="H672" s="27"/>
       <c r="I672" s="27"/>
-      <c r="J672" s="60"/>
-      <c r="K672" s="60"/>
-      <c r="L672" s="60"/>
+      <c r="J672" s="29"/>
+      <c r="K672" s="29"/>
+      <c r="L672" s="29"/>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" s="15"/>
@@ -10644,9 +10644,9 @@
       <c r="G673" s="27"/>
       <c r="H673" s="27"/>
       <c r="I673" s="27"/>
-      <c r="J673" s="60"/>
-      <c r="K673" s="60"/>
-      <c r="L673" s="60"/>
+      <c r="J673" s="29"/>
+      <c r="K673" s="29"/>
+      <c r="L673" s="29"/>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" s="15"/>
@@ -10658,9 +10658,9 @@
       <c r="G674" s="27"/>
       <c r="H674" s="27"/>
       <c r="I674" s="27"/>
-      <c r="J674" s="60"/>
-      <c r="K674" s="60"/>
-      <c r="L674" s="60"/>
+      <c r="J674" s="29"/>
+      <c r="K674" s="29"/>
+      <c r="L674" s="29"/>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="15"/>
@@ -10672,9 +10672,9 @@
       <c r="G675" s="27"/>
       <c r="H675" s="27"/>
       <c r="I675" s="27"/>
-      <c r="J675" s="60"/>
-      <c r="K675" s="60"/>
-      <c r="L675" s="60"/>
+      <c r="J675" s="29"/>
+      <c r="K675" s="29"/>
+      <c r="L675" s="29"/>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="15"/>
@@ -10686,9 +10686,9 @@
       <c r="G676" s="27"/>
       <c r="H676" s="27"/>
       <c r="I676" s="27"/>
-      <c r="J676" s="60"/>
-      <c r="K676" s="60"/>
-      <c r="L676" s="60"/>
+      <c r="J676" s="29"/>
+      <c r="K676" s="29"/>
+      <c r="L676" s="29"/>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="15"/>
@@ -10700,19 +10700,22 @@
       <c r="G677" s="27"/>
       <c r="H677" s="27"/>
       <c r="I677" s="27"/>
-      <c r="J677" s="60"/>
-      <c r="K677" s="60"/>
-      <c r="L677" s="60"/>
+      <c r="J677" s="29"/>
+      <c r="K677" s="29"/>
+      <c r="L677" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="B6:K6"/>
     <mergeCell ref="A19:O19"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -10725,16 +10728,13 @@
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="A17:O17"/>
     <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="L24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
